--- a/check.xlsx
+++ b/check.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="888" uniqueCount="253">
   <si>
     <t>Name</t>
   </si>
@@ -34,499 +34,755 @@
     <t>Store</t>
   </si>
   <si>
-    <t>Carnivorous Plant Conservation Donation</t>
-  </si>
-  <si>
-    <t>Dionaea m. 'Alien' Potted</t>
-  </si>
-  <si>
-    <t>Dionaea m. 'Bohemian Garnet' Potted</t>
-  </si>
-  <si>
-    <t>Dionaea m. 'Coquillage' Potted</t>
-  </si>
-  <si>
-    <t>Dionaea m. 'Funnel Trap' Potted</t>
-  </si>
-  <si>
-    <t>Dionaea m. 'Galaxy' Potted</t>
-  </si>
-  <si>
-    <t>Dionaea m. 'Korean Melody Shark' Potted</t>
-  </si>
-  <si>
-    <t>Dionaea m. 'Pink' Potted</t>
-  </si>
-  <si>
-    <t>Dionaea m. 'Red Piranha' Potted</t>
-  </si>
-  <si>
-    <t>Dionaea m. 'Tiger Jaws x Sawtooth' Potted</t>
-  </si>
-  <si>
-    <t>Dionaea m. 'Wacky Traps' Potted</t>
-  </si>
-  <si>
-    <t>Dionaea m. seed grown Potted</t>
-  </si>
-  <si>
-    <t>Drosera capensis "Genome Project" Potted</t>
-  </si>
-  <si>
-    <t>Drosera capensis 'alba narrow leaf' Potted</t>
-  </si>
-  <si>
-    <t>Drosera capensis 'narrow leaf' Potted</t>
-  </si>
-  <si>
-    <t>Drosera capensis 'wide leaf' Potted</t>
-  </si>
-  <si>
-    <t>Drosera regia Potted</t>
-  </si>
-  <si>
-    <t>72 Hour Heat Pack</t>
-  </si>
-  <si>
-    <t>Drosera callistos 'Brookton Large Form' Potted</t>
-  </si>
-  <si>
-    <t>Drosera dichrosepala Potted</t>
-  </si>
-  <si>
-    <t>Drosera enodes 'Scotts River' Potted</t>
-  </si>
-  <si>
-    <t>Drosera helodes Potted</t>
-  </si>
-  <si>
-    <t>Drosera leucoblasta "Cranbrook Form, Giant Flower" Potted</t>
-  </si>
-  <si>
-    <t>Drosera nitidula x pulchella Potted</t>
-  </si>
-  <si>
-    <t>Drosera omissa "white flower" Potted</t>
-  </si>
-  <si>
-    <t>Drosera omissa x pulchella "light pink with red center" Potted</t>
-  </si>
-  <si>
-    <t>Drosera omissa x pulchella Potted</t>
-  </si>
-  <si>
-    <t>Drosera pulchella 'pink flower' Potted</t>
-  </si>
-  <si>
-    <t>Drosera roseana Potted</t>
-  </si>
-  <si>
-    <t>Drosera scorpioides Potted</t>
-  </si>
-  <si>
-    <t>Drosera x 'Carburup' Potted</t>
-  </si>
-  <si>
-    <t>Drosera x 'Dork's Pink' Potted</t>
-  </si>
-  <si>
-    <t>Pygmy Sundew Sampler Potted (4 Plants)</t>
-  </si>
-  <si>
-    <t>Drosera aliciae Potted</t>
-  </si>
-  <si>
-    <t>Drosera coccicaulis Potted</t>
-  </si>
-  <si>
-    <t>Drosera hamiltonii Potted</t>
-  </si>
-  <si>
-    <t>Drosera rubrifolia Potted</t>
-  </si>
-  <si>
-    <t>Drosera spatulata Deluxe Potted</t>
-  </si>
-  <si>
-    <t>Drosera slackii Potted</t>
-  </si>
-  <si>
-    <t>Drosera dichotoma 'Giant' Potted</t>
-  </si>
-  <si>
-    <t>Drosera dichotoma 'T-Form' Potted</t>
-  </si>
-  <si>
-    <t>Drosera x 'Marston Dragon' Potted</t>
-  </si>
-  <si>
-    <t>Drosera x 'California Sunset' Potted</t>
-  </si>
-  <si>
-    <t>Drosera adelae "giant" Potted</t>
-  </si>
-  <si>
-    <t>Drosera graomogolensis Potted</t>
-  </si>
-  <si>
-    <t>Drosera prolifera Potted</t>
-  </si>
-  <si>
-    <t>Drosera x 'Andromeda' Potted</t>
-  </si>
-  <si>
-    <t>Drosera aberrans Potted</t>
-  </si>
-  <si>
-    <t>Drosera indumenta Potted</t>
-  </si>
-  <si>
-    <t>Drosera macrophylla ssp. macrophylla Potted</t>
-  </si>
-  <si>
-    <t>Drosera ramellosa 'white flower' Potted</t>
-  </si>
-  <si>
-    <t>Drosera squamosa x collina Potted</t>
-  </si>
-  <si>
-    <t>Drosera whittakeri "dark red x typical" Potted</t>
-  </si>
-  <si>
-    <t>Sarracenia flava (SG) Deluxe Potted</t>
-  </si>
-  <si>
-    <t>Sarracenia flava cuprea x rubricorpora (SG) Deluxe Potted</t>
-  </si>
-  <si>
-    <t>Sarracenia flava v. rugelli (S-SG) Potted</t>
-  </si>
-  <si>
-    <t>Sarracenia minor (S-SG) Potted</t>
-  </si>
-  <si>
-    <t>Sarracenia minor var. okefenokeensis (L-DIV) Potted</t>
-  </si>
-  <si>
-    <t>Sarracenia psittacina "Stone Co, MS" (S-SG) Potted</t>
-  </si>
-  <si>
-    <t>Sarracenia purpurea ssp. purpurea (SG) Potted</t>
-  </si>
-  <si>
-    <t>Sarracenia purpurea ssp. purpurea form heterophylla (S-SG) Potted</t>
-  </si>
-  <si>
-    <t>Sarracenia rubra ssp. gulfensis "Giant x Dark Red" (S-SG) Deluxe Potted</t>
-  </si>
-  <si>
-    <t>Fancy Sarracenia Hybrid Potted</t>
-  </si>
-  <si>
-    <t>Sarracenia ( purpurea x psittacina ) x ( minor x oreophila ) (S-SG) Potted</t>
-  </si>
-  <si>
-    <t>Sarracenia ( x 'Adrian Slack' ) x ( x 'Royal Ruby' ) (S-SG) Deluxe Potted</t>
-  </si>
-  <si>
-    <t>Sarracenia ( x 'Judith Hindle' ) x flava v. rubricorpora (S-SG) Potted</t>
-  </si>
-  <si>
-    <t>Sarracenia ( x 'Judith Hindle' ) x rubra ssp. jonesii (S-SG) Potted</t>
-  </si>
-  <si>
-    <t>Sarracenia ( x 'Leo Song' ) x leucophylla 'Hurricane Creek' (S-SG) Potted</t>
-  </si>
-  <si>
-    <t>Sarracenia ( x mitchelliana 'Dark Burgundy' F2 ) x alata 'Night' (S-SG) Potted</t>
-  </si>
-  <si>
-    <t>Sarracenia (flava x alata var. rubrioperculata) x purpurea ssp. purpurea "New Jersey" (S-SG) Potted</t>
-  </si>
-  <si>
-    <t>Sarracenia Cultivar Collection Potted (3 Plants)</t>
-  </si>
-  <si>
-    <t>Sarracenia flava v. rubricorpora (S-SG) Potted</t>
-  </si>
-  <si>
-    <t>Sarracenia flava v. rubricorpora x  ( x 'Red Ruffles' ) (S-SG) Potted</t>
-  </si>
-  <si>
-    <t>Sarracenia leucophylla 'Schnell's Ghost' x alata v. rubrioperculata (SG) Potted</t>
-  </si>
-  <si>
-    <t>Sarracenia minor x 'Lamentations' (S-SG) Potted</t>
-  </si>
-  <si>
-    <t>Sarracenia purpurea ssp. purpurea "New Jersey" x flava v. rubricorpora (M-SG) Potted</t>
-  </si>
-  <si>
-    <t>Sarracenia purpurea ssp. purpurea "New Jersey" x psittacina (S-SG) Potted</t>
-  </si>
-  <si>
-    <t>Sarracenia rubra ssp. gulfensis "Dark Red" x flava v. rubricorpora (SG) Potted</t>
-  </si>
-  <si>
-    <t>Sarracenia x 'Abandoned Hope' (L-TC) Potted</t>
-  </si>
-  <si>
-    <t>Sarracenia x 'Bug Bat' (M-TC) Deluxe Potted</t>
-  </si>
-  <si>
-    <t>Sarracenia ( x 'Godzuki' ) x purpurea ssp. purpurea "New Jersey" (S-SG) Potted</t>
-  </si>
-  <si>
-    <t>Sarracenia x 'Dana's Delight' (VC) Potted</t>
-  </si>
-  <si>
-    <t>Sarracenia x 'Judith Hindle' (VC) Potted</t>
-  </si>
-  <si>
-    <t>Sarracenia x 'Lamentations' (L-DIV) Deluxe Potted</t>
-  </si>
-  <si>
-    <t>Sarracenia x 'Maroon' (S-VC) Potted</t>
-  </si>
-  <si>
-    <t>Sarracenia x 'Red Bug' (M-TC) Deluxe Potted</t>
-  </si>
-  <si>
-    <t>Sarracenia x 'Spatter Pattern' (L-DIV) Deluxe Potted</t>
-  </si>
-  <si>
-    <t>Sarracenia x mitchelliana (S-VC) Potted</t>
-  </si>
-  <si>
-    <t>Sarracenia x wrigleyana 'scarlett belle' (L-VC) Potted</t>
-  </si>
-  <si>
-    <t>Sarracenia [ ( x readii F2) x leucophylla 'Schnell's Ghost' ] x minor "Giant" (S-SG) Potted</t>
-  </si>
-  <si>
-    <t>Nepenthes ( x ventrata ) x alata (TC)</t>
-  </si>
-  <si>
-    <t>Nepenthes burbidgeae x veitchii (M-SG) Potted</t>
-  </si>
-  <si>
-    <t>Nepenthes klossi (S-TC) Potted</t>
-  </si>
-  <si>
-    <t>Nepenthes palawanensis (S-TC) Potted</t>
-  </si>
-  <si>
-    <t>Nepenthes rajah x veitchii (M-TC) Potted</t>
-  </si>
-  <si>
-    <t>Nepenthes robcantleyi x fusca (M-TC) Potted</t>
-  </si>
-  <si>
-    <t>Nepenthes robcantleyi x veitchii (M-TC) Potted</t>
-  </si>
-  <si>
-    <t>Nepenthes singalana x ventricosa (M-TC) Potted</t>
-  </si>
-  <si>
-    <t>Nepenthes talangensis x glandulifera (TC) Potted</t>
-  </si>
-  <si>
-    <t>Nepenthes veitchii x platychila (M-TC) Potted</t>
-  </si>
-  <si>
-    <t>Nepenthes lingulata (S-TC) Potted</t>
-  </si>
-  <si>
-    <t>Nepenthes northiana x bicalcarata (M-TC) Potted</t>
-  </si>
-  <si>
-    <t>Nepenthes northiana (S-SG) Potted</t>
-  </si>
-  <si>
-    <t>Cephalotus follicularis "ABG Clone" Potted</t>
-  </si>
-  <si>
-    <t>Cephalotus follicularis "Agnes" Potted</t>
-  </si>
-  <si>
-    <t>Cephalotus follicularis "Norma" Potted</t>
-  </si>
-  <si>
-    <t>Pinguicula ionantha</t>
-  </si>
-  <si>
-    <t>Pinguicula "BCP Golden Eye" Potted</t>
-  </si>
-  <si>
-    <t>Pinguicula agnata "ekuma" x emarginata Potted</t>
-  </si>
-  <si>
-    <t>Pinguicula crassifolia x moranensis "Vera Cruz" Potted</t>
-  </si>
-  <si>
-    <t>Pinguicula cyclosecta Potted</t>
-  </si>
-  <si>
-    <t>Pinguicula emarginata x laueana Potted</t>
-  </si>
-  <si>
-    <t>Pinguicula gigantea x ehlersiae Potted</t>
-  </si>
-  <si>
-    <t>Pinguicula moranensis "MOAL" Potted</t>
-  </si>
-  <si>
-    <t>Pinguicula moranensis 'M' Potted</t>
-  </si>
-  <si>
-    <t>Pinguicula moranensis var. alba "Molongo" x emarginata "Zacupoxtla" Potted</t>
-  </si>
-  <si>
-    <t>Pinguicula rectifolia "MR"  x emarginata Potted</t>
-  </si>
-  <si>
-    <t>Pinguicula x 'Hameln' Deluxe Potted</t>
-  </si>
-  <si>
-    <t>Pinguicula x 'John Rizzi' Potted</t>
-  </si>
-  <si>
-    <t>Pinguicula agnata x ( moranensis  x ehlersiae ) Potted</t>
-  </si>
-  <si>
-    <t>Pinguicula emarginata "purple flower" Potted</t>
-  </si>
-  <si>
-    <t>Pinguicula gigantea x laueana "red" medium Potted</t>
-  </si>
-  <si>
-    <t>Pinguicula hemiepiphytica Potted</t>
-  </si>
-  <si>
-    <t>Pinguicula moranensis 'alba' x moranensis 'Libelulita' Potted</t>
-  </si>
-  <si>
-    <t>Pinguicula moranensis 'Libelulita' Potted</t>
-  </si>
-  <si>
-    <t>Pinguicula rectifolia MR Potted</t>
-  </si>
-  <si>
-    <t>Pinguicula x 'Sethos' Potted</t>
-  </si>
-  <si>
-    <t>Utricularia livida Potted</t>
-  </si>
-  <si>
-    <t>1.00</t>
+    <t>Venus Flytrap - Typical - Small potted</t>
+  </si>
+  <si>
+    <t>Venus Flytrap - Typical Medium/Large Potted</t>
+  </si>
+  <si>
+    <t>Venus Flytrap 'Australian Red Rosetted' - Small potted</t>
+  </si>
+  <si>
+    <t>Venus Flytrap 'B-52' - RARE COLLECTOR'S PLANT - Medium/Large Potted</t>
+  </si>
+  <si>
+    <t>Venus Flytrap 'B-52' - RARE COLLECTOR'S PLANT - NEW LOWER PRICE!!</t>
+  </si>
+  <si>
+    <t>Venus Flytrap 'Big Jaws' - small potted</t>
+  </si>
+  <si>
+    <t>Venus Flytrap 'Big Mouth' - Medium/Large Potted</t>
+  </si>
+  <si>
+    <t>Venus Flytrap 'Big Mouth' - small potted</t>
+  </si>
+  <si>
+    <t>Venus Flytrap 'Black Pearl'- small potted - RARE, and ONLY TWO AVAILABLE!!</t>
+  </si>
+  <si>
+    <t>Venus Flytrap 'Bristletooth' - Small Potted</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Venus Flytrap 'DC XL' - some of the largest traps!!
+</t>
+  </si>
+  <si>
+    <t>Venus Flytrap 'DC XL' - some of the largest traps!! Medium/Large Potted</t>
+  </si>
+  <si>
+    <t>Venus Flytrap 'Dente' - Small Potted</t>
+  </si>
+  <si>
+    <t>Venus Flytrap 'Dingleys Giant'- small potted - ONLY A FEW AVAILABLE!!</t>
+  </si>
+  <si>
+    <t>Venus Flytrap 'Draco' - small potted - RARE - ONLY TWO AVAILABLE!!</t>
+  </si>
+  <si>
+    <t>Venus Flytrap 'Fang' - Medium/Large - RARE CULTIVAR!!</t>
+  </si>
+  <si>
+    <t>Venus Flytrap 'Fang' - RARE CULTIVAR!!</t>
+  </si>
+  <si>
+    <t>Venus Flytrap 'Fine Tooth x Red' - Small potted</t>
+  </si>
+  <si>
+    <t>Venus Flytrap 'Fused Tooth' - RARE CULTIVAR, and ONLY ONE AVAILABLE!! - Small Potted</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Venus Flytrap 'Fuzzy Teeth' - small potted </t>
+  </si>
+  <si>
+    <t>Venus Flytrap 'G-14 Rosetted' - Medium/Large potted</t>
+  </si>
+  <si>
+    <t>Venus Flytrap 'G-14 Rosetted' - Small potted</t>
+  </si>
+  <si>
+    <t>Venus Flytrap 'Ginormous' - RARE COLLECTOR'S PLANT, and NEW LOWER PRICE!!</t>
+  </si>
+  <si>
+    <t>Venus Flytrap 'Green Dragon' - Large Potted - RARELY AVAILABLE!</t>
+  </si>
+  <si>
+    <t>Venus Flytrap 'Green Dragon' - Small Potted - RARELY AVAILABLE!</t>
+  </si>
+  <si>
+    <t>Venus Flytrap 'King Henry' - Small Potted</t>
+  </si>
+  <si>
+    <t>Venus Flytrap 'Leo Songs Jaws' - Medium/Large potted</t>
+  </si>
+  <si>
+    <t>Venus Flytrap 'Leo Songs Jaws' - small potted - NEW LOWER PRICE!</t>
+  </si>
+  <si>
+    <t>Venus Flytrap 'Lips and Lashes' - small potted - ULTRA-RARE, and NEW LOWER PRICE!!</t>
+  </si>
+  <si>
+    <t>Venus Flytrap 'Martahs Lips'- small potted - ULTRA-RARE, and NEW LOWER PRICE!!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Venus Flytrap 'Megatraps' - Medium/Large Potted - RARELY AVAILABLE!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Venus Flytrap 'Megatraps' - Small Potted - RARELY AVAILABLE!
+</t>
+  </si>
+  <si>
+    <t>Venus Flytrap 'Paradisia' - small potted</t>
+  </si>
+  <si>
+    <t>Venus Flytrap 'Pink Venus' - small potted</t>
+  </si>
+  <si>
+    <t>Venus Flytrap 'Royal Red' - Medium/Large Potted</t>
+  </si>
+  <si>
+    <t>Venus Flytrap 'Royal Red' - NEW LOWER PRICE!</t>
+  </si>
+  <si>
+    <t>Venus Flytrap Sampler</t>
+  </si>
+  <si>
+    <t>Venus Flytrap 'Southwest Giant' - small potted - ONLY TWO AVAILABLE!!</t>
+  </si>
+  <si>
+    <t>Venus Flytrap Terrarium Kit - Everything you need in one item!</t>
+  </si>
+  <si>
+    <t>Venus Flytrap 'UK Sawtooth' - small potted - RARE - ONLY A FEW AVAILABLE!!</t>
+  </si>
+  <si>
+    <t>Venus Flytrap 'Vigorous' - Small potted</t>
+  </si>
+  <si>
+    <t>Venus Flytrap 'WIP Slim Snapper' - Medium/Large Potted</t>
+  </si>
+  <si>
+    <t>Venus Flytrap 'WIP Slim Snapper' - Small Potted - NEW LOWER PRICE!!</t>
+  </si>
+  <si>
+    <t>Venus Flytrap 'Yellow' - Small Potted - NEW LOWER PRICE!!</t>
+  </si>
+  <si>
+    <t>Drosera binata - forked sundew</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Drosera capensis
+</t>
+  </si>
+  <si>
+    <t>Drosera capensis 'Alba'</t>
+  </si>
+  <si>
+    <t>Drosera multifida var. extrema - MULTI-FORKED SUNDEW!!</t>
+  </si>
+  <si>
+    <t>Drosera scorpioides</t>
+  </si>
+  <si>
+    <t>Drosera spatulata</t>
+  </si>
+  <si>
+    <t>Sundew Terrarium Kit - Everything you need in one item!</t>
+  </si>
+  <si>
+    <t>Nepenthes (ampullaria 'Brunei red' x mirabilis var. globosa) x dubia - Medium Potted</t>
+  </si>
+  <si>
+    <t>Nepenthes (veitchii x lowii) x fusca - BE-3937</t>
+  </si>
+  <si>
+    <t>Nepenthes (veitchii x lowii) x spectabilis - Medium Hanging Basket - ONLY TWO AVAILABLE</t>
+  </si>
+  <si>
+    <t>Nepenthes aenigma - NEWLY DESCRIBED SPECIES, and LOWER PRICE!! - BE-3770. ONLY A FEW AVAILABLE!!</t>
+  </si>
+  <si>
+    <t>Nepenthes aenigma Medium potted - NEWLY DESCRIBED SPECIES, and ONLY A FEW AVAILABLE!!</t>
+  </si>
+  <si>
+    <t>Nepenthes ampullaria 'Brunei Red' x aristolochioides - WICKED HYBRID!! - BE-3658</t>
+  </si>
+  <si>
+    <t>Nepenthes ampullaria 'Brunei Red' x hamata 'Tambusisi' Assorted Clones - Medium Potted - NEW HYBRID, and ONLY A FEW AVAILABLE!!</t>
+  </si>
+  <si>
+    <t>Nepenthes ampullaria 'Harlequin' (William's Red x Harlequin) - SINGLE BEST CLONE!!</t>
+  </si>
+  <si>
+    <t>Nepenthes ampullaria x (spectabilis x talangensis) - SINGLE BEST CLONE</t>
+  </si>
+  <si>
+    <t>Nepenthes ampullaria x (spectabilis x ventricosa) Medium Potted</t>
+  </si>
+  <si>
+    <t>Nepenthes ampullaria x hamata - Assorted Clones - Medium Potted - NEW HYBRID, and ONLY A FEW AVAILABLE!!</t>
+  </si>
+  <si>
+    <t>Nepenthes ampullaria x hamata - Assorted Clones - NEW HYBRID, and ONLY A FEW AVAILABLE!!</t>
+  </si>
+  <si>
+    <t>Nepenthes ampullaria x reinwardtiana - NEW HYBRID!! BE-3938</t>
+  </si>
+  <si>
+    <t>Nepenthes aristolochioides x burkei 'Halcon' - Medium Potted</t>
+  </si>
+  <si>
+    <t>Nepenthes aristolochioides x robcantleyi 'King of Spades' - Medium Hanging Basket. NEW HYBRID, and ONLY A FEW AVAILABLE!!</t>
+  </si>
+  <si>
+    <t>Nepenthes aristolochioides x ventricosa - BE-3447</t>
+  </si>
+  <si>
+    <t>Nepenthes boschiana - Assorted clones - Medium Hanging Basket</t>
+  </si>
+  <si>
+    <t>Nepenthes boschiana 'Gunung Sakumpang' x mira 'Cleopatra's Needle' - BE-3675</t>
+  </si>
+  <si>
+    <t>Nepenthes boschiana 'Gunung Sakumpang' x mira 'Cleopatra's Needle' - Medium Potted</t>
+  </si>
+  <si>
+    <t>Nepenthes burbidgeae x sibuyanensis 'Best Clone #1' - Medium Potted - New Hybrid! BE-3885</t>
+  </si>
+  <si>
+    <t>Nepenthes burbidgeae x sibuyanensis 'Best Clone #1' - New Hybrid! BE-3885</t>
+  </si>
+  <si>
+    <t>Nepenthes burbidgeae x sibuyanensis 'Best Clone #2' - Medium Potted - New Hybrid! BE-3890</t>
+  </si>
+  <si>
+    <t>Nepenthes burbidgeae x sibuyanensis 'Best Clone #2' - New Hybrid! BE-3890</t>
+  </si>
+  <si>
+    <t>Nepenthes burbidgeae x veitchii 'Assorted Clones' - Medium Potted - RARE HYBRID - BE-3723</t>
+  </si>
+  <si>
+    <t>Nepenthes burbidgeae x veitchii 'Assorted Clones' - RARE HYBRID - BE-3723</t>
+  </si>
+  <si>
+    <t>Nepenthes burkei 'Halcon' x ampullaria - Medium Potted</t>
+  </si>
+  <si>
+    <t>Nepenthes burkei x hamata - Medium Potted - Assorted Clones...ONLY A FEW AVAILABLE!!</t>
+  </si>
+  <si>
+    <t>Nepenthes burkei x robcantleyi 'King of Clubs' - Assorted clones - BE-3752</t>
+  </si>
+  <si>
+    <t>Nepenthes burkei x veitchii 'Assorted Clones' - NEW HYBRID!! BE-3934</t>
+  </si>
+  <si>
+    <t>Nepenthes burkei x veitchii 'Assorted Clones' - NEW HYBRID!! Medium Potted BE-3934</t>
+  </si>
+  <si>
+    <t>Nepenthes chaniana - RARELY AVAILABLE!! - BE-3434</t>
+  </si>
+  <si>
+    <t>Nepenthes densiflora 'Leuser, Single BEST Clone' - BE-3837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nepenthes densiflora x rafflesiana 'Clone 99' - Medium Potted - SINGLE BEST CLONE, and ONLY A FEW AVAILABLE!! </t>
+  </si>
+  <si>
+    <t>Nepenthes diatas 'Gunung Masurai, BEST Clone' - BE-3861</t>
+  </si>
+  <si>
+    <t>Nepenthes eymae 'Assorted Clones' - Medium Potted, and ONLY A FEW AVAILABLE!! BE-3736</t>
+  </si>
+  <si>
+    <t>Nepenthes fusca - FLARED PERISTOME - BE-3068</t>
+  </si>
+  <si>
+    <t>Nepenthes glandulifera - RARE SEED-GROWN SPECIES! - Medium Potted</t>
+  </si>
+  <si>
+    <t>Nepenthes glandulifera x petiolata - Large Hanging Basket - NEW HYBRID!</t>
+  </si>
+  <si>
+    <t>Nepenthes glandulifera x robcantleyi - Medium Potted - SEED-GROWN hybrid, and NEW LOWER PRICE!</t>
+  </si>
+  <si>
+    <t>Nepenthes glandulifera x tenuis - NEW HYBRID! BE-3891</t>
+  </si>
+  <si>
+    <t>Nepenthes hirsuta</t>
+  </si>
+  <si>
+    <t>Nepenthes hirsuta - Medium Potted</t>
+  </si>
+  <si>
+    <t>Nepenthes izumiae 'Lusung Tungkut' - BEST CLONE - RARELY AVAILABLE SPECIES, and ONLY A FEW AVAILABLE!! BE-3925</t>
+  </si>
+  <si>
+    <t>Nepenthes jacquelineae 'Gunung Gadang' - RARE AND BEAUTIFUL...ONLY A FEW AVAILABLE! BE-3092</t>
+  </si>
+  <si>
+    <t>Nepenthes jamban 'Assorted Clones' - RARE AND BEAUTIFUL - BE-3875. ONLY A FEW AVAILABLE!!</t>
+  </si>
+  <si>
+    <t>Nepenthes longifolia 'Red' - NEWLY AVAILABLE SPECIES!!</t>
+  </si>
+  <si>
+    <t>Nepenthes madagascariensis</t>
+  </si>
+  <si>
+    <t>Nepenthes maxima 'dark' x sibuyanensis 'Squat' - Exotica Plants Clone!! - Large Hanging Basket - ONLY TWO AVAILABLE!!</t>
+  </si>
+  <si>
+    <t>Nepenthes maxima 'Gunung Lumut' - BE-3067</t>
+  </si>
+  <si>
+    <t>Nepenthes maxima 'Gunung Lumut' x burbidgeae - New Hybrid! - Medium Potted</t>
+  </si>
+  <si>
+    <t>Nepenthes maxima 'Gunung Lumut' x vogelii Medium Hanging Basket - NEW HYBRID, and ONLY A FEW AVAILABLE!!</t>
+  </si>
+  <si>
+    <t>Nepenthes maxima 'Gunung Lumut' x xtrusmadiensis - SUPERB HYBRID!! - BE-3709</t>
+  </si>
+  <si>
+    <t>Nepenthes maxima x aristolochioides - Medium Hanging Basket - RARE SEED-GROWN PLANTS!!</t>
+  </si>
+  <si>
+    <t>Nepenthes maxima x ramispina - single select clone</t>
+  </si>
+  <si>
+    <t>Nepenthes mira - Single BEST CLONE - Medium Potted</t>
+  </si>
+  <si>
+    <t>Nepenthes mirabilis var. echinostoma - Medium Potted</t>
+  </si>
+  <si>
+    <t>Nepenthes mirabilis var. globosa (aka Nepenthes 'Viking')</t>
+  </si>
+  <si>
+    <t>Nepenthes mirabilis var. globosa x hamata 'Tambusisi' - Large Hanging Basket - ONLY A FEW AVAILABLE!!</t>
+  </si>
+  <si>
+    <t>Nepenthes mirabilis var. globosa x hamata 'Tambusisi' - Medium Hanging Basket - ONLY A FEW AVAILABLE!!</t>
+  </si>
+  <si>
+    <t>Nepenthes neoguineensis - RARE SPECIES - Medium Hanging Basket</t>
+  </si>
+  <si>
+    <t>Nepenthes petiolata x talangensis - NEW HYBRID!! - Medium Potted</t>
+  </si>
+  <si>
+    <t>Nepenthes petiolata x veitchii - NEW HYBRID!!</t>
+  </si>
+  <si>
+    <t>Nepenthes rafflesiana - BE SINGLE BEST CLONE</t>
+  </si>
+  <si>
+    <t>Nepenthes rafflesiana - BE SINGLE BEST CLONE - Medium Hanging Basket</t>
+  </si>
+  <si>
+    <t>Nepenthes rafflesiana - BE SINGLE BEST CLONE - Medium Potted</t>
+  </si>
+  <si>
+    <t>Nepenthes rafflesiana 'assorted clones'</t>
+  </si>
+  <si>
+    <t>Nepenthes rafflesiana 'assorted clones' - Medium Potted</t>
+  </si>
+  <si>
+    <t>Nepenthes rajah x mira 'Cleopatra's Needle 'BEST CLONE' - BE-3788</t>
+  </si>
+  <si>
+    <t>Nepenthes ramispina 'Dark' x reinwardtiana 'Tambunan Road' Medium Hanging Basket - NEW HYBRID, and ONLY A FEW AVAILABLE! BE-3711</t>
+  </si>
+  <si>
+    <t>Nepenthes ramispina 'Dark' x reinwardtiana 'Tambunan Road' Medium potted - NEW HYBRID, and ONLY A FEW AVAILABLE! BE-3711</t>
+  </si>
+  <si>
+    <t>Nepenthes ramispina x robcantleyi - LARGE, dark pitchers, and ONLY A FEW AVAILABLE! BE-3939</t>
+  </si>
+  <si>
+    <t>Nepenthes ramispina x spectabilis 'Giant' - assorted clones</t>
+  </si>
+  <si>
+    <t>Nepenthes ramispina x spectabilis 'Giant' - assorted clones - Medium Hanging Basket</t>
+  </si>
+  <si>
+    <t>Nepenthes ramispina x spectabilis 'Giant' - assorted clones - Medium Potted</t>
+  </si>
+  <si>
+    <t>Nepenthes robcantleyi 'Queen of Hearts' x veitchii 'Bareo, Striped' - Large pitchers with candy-striped peristomes - BE-3933; ONLY A FEW AVAILABLE!!</t>
+  </si>
+  <si>
+    <t>Nepenthes robcantleyi x (sibuyanensis x ventricosa) 'Assorted Clones' - Huge, colorful pitchers with wide peristomes! Medium Potted - BE-3748</t>
+  </si>
+  <si>
+    <t>Nepenthes robcantleyi x burbidgeae 'Assorted Clones' - Medium Potted - NEW HYBRID!! Large pitchers with candy-striped peristomes; ONLY TWO AVAILABLE!! BE-3935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nepenthes sanguinea - Large Hanging Basket
+</t>
+  </si>
+  <si>
+    <t>Nepenthes sanguinea - Medium Hanging Basket</t>
+  </si>
+  <si>
+    <t>Nepenthes sibuyanensis - Medium Potted</t>
+  </si>
+  <si>
+    <t>Nepenthes sibuyanensis x hamata -  VERY RARE PLANT!! - Medium Hanging Basket</t>
+  </si>
+  <si>
+    <t>Nepenthes sibuyanensis x hamata -  VERY RARE PLANT!! - Medium Potted</t>
+  </si>
+  <si>
+    <t>Nepenthes sibuyanensis x robcantleyi 'King of Clubs' - Assorted clones - BE-3713 - HUGE, DARK, and ONLY A FEW AVAILABLE!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nepenthes sibuyanensis x robcantleyi 'King of Clubs' - Assorted clones, Medium Potted - BE-3713 - HUGE, DARK, and ONLY A FEW AVAILABLE! </t>
+  </si>
+  <si>
+    <t>Nepenthes sibuyanensis x robcantleyi 'King of Clubs' Medium Hanging Basket - HUGE, DARK, and ONLY ONE AVAILABLE!</t>
+  </si>
+  <si>
+    <t>Nepenthes singalana 'Masurai form' - assorted clones - Medium Potted - BE-3761</t>
+  </si>
+  <si>
+    <t>Nepenthes singalana x burkei 'Best Clone' - Medium Hanging Basket - BE-3878</t>
+  </si>
+  <si>
+    <t>Nepenthes singalana x mirabilis var. globosa - NEW SEED-GROWN PLANT!! Medium Hanging Basket</t>
+  </si>
+  <si>
+    <t>Nepenthes SP #1 - Large Hanging Basket</t>
+  </si>
+  <si>
+    <t>Nepenthes SP #1 - Medium Hanging Basket</t>
+  </si>
+  <si>
+    <t>Nepenthes spathulata x (lowii x tentaculata) - New hybrid! BE-3732</t>
+  </si>
+  <si>
+    <t>Nepenthes spathulata x campanulata 'Best Clone' - Medium Potted - Green, flaring pitchers, and easy to grow! BE-3796</t>
+  </si>
+  <si>
+    <t>Nepenthes spathulata x dubia - BE-3751</t>
+  </si>
+  <si>
+    <t>Nepenthes spathulata x hamata 'Gunung Lumut' Medium Hanging Basket - RARE HYBRID, and ONLY A FEW AVAILABLE!!</t>
+  </si>
+  <si>
+    <t>Nepenthes spathulata x jacquelineae 'Assorted Clones' - BE-3883 - Medium Potted</t>
+  </si>
+  <si>
+    <t>Nepenthes spathulata x merrilliana - New hybrid, and ONLY A FEW AVAILABLE!! BE-3949</t>
+  </si>
+  <si>
+    <t>Nepenthes spathulata x spectabilis 'Giant' - SEED-GROWN PLANTS - BE-3314</t>
+  </si>
+  <si>
+    <t>Nepenthes spathulata x spectabilis 'Giant' - SEED-GROWN PLANTS - Large Hanging Basket</t>
+  </si>
+  <si>
+    <t>Nepenthes spathulata x spectabilis 'Giant' - SEED-GROWN PLANTS - Medium Hanging Basket</t>
+  </si>
+  <si>
+    <t>Nepenthes spathulata x tobaica 'Gunung Dolloksanggul' - Large Hanging Basket - NEW HYBRID and ONLY A FEW AVAILABLE!!</t>
+  </si>
+  <si>
+    <t>Nepenthes spathulata x tobaica 'Gunung Dolloksanggul' - Medium Hanging Basket - NEW HYBRID and ONLY A FEW AVAILABLE!!</t>
+  </si>
+  <si>
+    <t>Nepenthes spectabilis 'Giant' - BE-3322</t>
+  </si>
+  <si>
+    <t>Nepenthes spectabilis 'Giant' x aristolochioides - Medium Potted - single select clone with BIZARRE pitchers! BE-3663</t>
+  </si>
+  <si>
+    <t>Nepenthes spectabilis 'Giant' x HAMATA - Medium Potted - VERY FEW AVAILABLE!!</t>
+  </si>
+  <si>
+    <t>Nepenthes spectabilis 'Giant' x platychila - Medium Potted- SINGLE BEST CLONE with an AWESOME PERISTOME!</t>
+  </si>
+  <si>
+    <t>Nepenthes spectabilis 'Giant' x veitchii - Medium Hanging Basket - New Hybrid with an AWESOME PERISTOME!</t>
+  </si>
+  <si>
+    <t>Nepenthes spectabilis 'Giant' x veitchii 'Bareo Red Striped' - BEST CLONE!! Medium Potted</t>
+  </si>
+  <si>
+    <t>Nepenthes spectabilis 'SEED-GROWN' - BE-3768</t>
+  </si>
+  <si>
+    <t>Nepenthes spectabilis x aristolochioides - BIZARRE pitchers! - BE-3663</t>
+  </si>
+  <si>
+    <t>Nepenthes spectabilis x ventricosa - 'Best Clone' - Large Potted - BE-3745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nepenthes 'Suki' (rafflesiana x sibuyanensis) - Medium Hanging Basket
+ 1 Review(s)_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nepenthes 'Suki' (rafflesiana x sibuyanensis) - Medium Potted - NEW LOWER PRICE!!
+</t>
+  </si>
+  <si>
+    <t>Nepenthes talangensis x glandulifera - NEW HYBRID! - Medium Hanging Basket</t>
+  </si>
+  <si>
+    <t>Nepenthes talangensis x glandulifera - NEW HYBRID! - Medium Potted</t>
+  </si>
+  <si>
+    <t>Nepenthes talangensis x robcantleyi - NEW HYBRID!! Medium Potted</t>
+  </si>
+  <si>
+    <t>Nepenthes talangensis x sibuyanensis 'Assorted Clones' - Medium Potted - BE-3641</t>
+  </si>
+  <si>
+    <t>Nepenthes tenuis 'West Sumatra' - Medium Potted</t>
+  </si>
+  <si>
+    <t>Nepenthes 'Unknown Hybrid'  - Medium Hanging Basket</t>
+  </si>
+  <si>
+    <t>Nepenthes 'ventrata' - Large Hanging Basket</t>
+  </si>
+  <si>
+    <t>Nepenthes 'ventrata' - Medium Hanging Basket</t>
+  </si>
+  <si>
+    <t>Nepenthes 'ventrata' - Medium Potted</t>
+  </si>
+  <si>
+    <t>Nepenthes 'ventrata' - Small Potted</t>
+  </si>
+  <si>
+    <t>Nepenthes ventricosa 'Madja-as, Single Best Clone' - BE-3278</t>
+  </si>
+  <si>
+    <t>Nepenthes ventricosa 'Red'</t>
+  </si>
+  <si>
+    <t>Nepenthes ventricosa 'Red' - Medium Hanging Basket</t>
+  </si>
+  <si>
+    <t>Nepenthes ventricosa 'Red' - Medium Potted</t>
+  </si>
+  <si>
+    <t>Nepenthes ventricosa x sibuyanensis 'assorted clones' - Medium Potted BE-3295</t>
+  </si>
+  <si>
+    <t>Nepenthes vogelii 'SINGLE SELECT CLONE' - ONLY A FEW AVAILABLE!! BE-3256</t>
+  </si>
+  <si>
+    <t>Nepenthes x billbaileyi - NEW PLANT!! - Large Hanging Basket</t>
+  </si>
+  <si>
+    <t>Nepenthes x billbaileyi - NEW PLANT!! - Medium Hanging Basket</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nepenthes x billbaileyi - NEW PLANT!! - Medium Potted - NEW LOWER PRICE!!
+</t>
+  </si>
+  <si>
+    <t>Nepenthes x hookeriana - INTERMEDIATE GROWER!! Large Hanging Basket</t>
+  </si>
+  <si>
+    <t>6-inch Hanging Basket - green</t>
+  </si>
+  <si>
+    <t>Sarracenia 'Judith Hindle' - Medium Potted</t>
+  </si>
+  <si>
+    <t>Sarracenia 'Juthatip Soper' - Small Potted</t>
+  </si>
+  <si>
+    <t>Sarracenia 'Scarlet Belle'</t>
+  </si>
+  <si>
+    <t>Sarracenia x catesbaei - Hybrid pitcher plant - Medium Potted</t>
+  </si>
+  <si>
+    <t>6.99</t>
+  </si>
+  <si>
+    <t>12.99</t>
+  </si>
+  <si>
+    <t>19.99</t>
+  </si>
+  <si>
+    <t>29.99</t>
+  </si>
+  <si>
+    <t>17.99</t>
+  </si>
+  <si>
+    <t>11.99</t>
+  </si>
+  <si>
+    <t>10.99</t>
+  </si>
+  <si>
+    <t>59.99</t>
+  </si>
+  <si>
+    <t>14.99</t>
+  </si>
+  <si>
+    <t>7.99</t>
+  </si>
+  <si>
+    <t>44.99</t>
+  </si>
+  <si>
+    <t>18.99</t>
+  </si>
+  <si>
+    <t>9.99</t>
+  </si>
+  <si>
+    <t>15.99</t>
+  </si>
+  <si>
+    <t>25.99</t>
+  </si>
+  <si>
+    <t>21.99</t>
+  </si>
+  <si>
+    <t>22.99</t>
+  </si>
+  <si>
+    <t>16.99</t>
   </si>
   <si>
     <t>49.99</t>
   </si>
   <si>
-    <t>14.99</t>
+    <t>34.99</t>
   </si>
   <si>
     <t>24.99</t>
   </si>
   <si>
+    <t>23.99</t>
+  </si>
+  <si>
+    <t>8.99</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.99
+</t>
+  </si>
+  <si>
     <t>39.99</t>
   </si>
   <si>
-    <t>19.99</t>
-  </si>
-  <si>
-    <t>12.99</t>
-  </si>
-  <si>
-    <t>9.99</t>
-  </si>
-  <si>
-    <t>3.99</t>
-  </si>
-  <si>
-    <t>34.99</t>
-  </si>
-  <si>
-    <t>7.95</t>
-  </si>
-  <si>
-    <t>38.95</t>
-  </si>
-  <si>
-    <t>29.99</t>
-  </si>
-  <si>
-    <t>9.95</t>
-  </si>
-  <si>
-    <t>12.95</t>
-  </si>
-  <si>
-    <t>99.95</t>
-  </si>
-  <si>
-    <t>14.95</t>
-  </si>
-  <si>
-    <t>44.99</t>
-  </si>
-  <si>
-    <t>24.95</t>
-  </si>
-  <si>
-    <t>78.95</t>
-  </si>
-  <si>
-    <t>59.99</t>
-  </si>
-  <si>
-    <t>299.00</t>
-  </si>
-  <si>
     <t>99.99</t>
   </si>
   <si>
-    <t>124.99</t>
-  </si>
-  <si>
-    <t>148.95</t>
-  </si>
-  <si>
-    <t>34.95</t>
-  </si>
-  <si>
-    <t>18.95</t>
+    <t>41.99</t>
+  </si>
+  <si>
+    <t>69.99</t>
+  </si>
+  <si>
+    <t>89.99</t>
+  </si>
+  <si>
+    <t>94.99</t>
+  </si>
+  <si>
+    <t>33.99</t>
+  </si>
+  <si>
+    <t>28.99</t>
+  </si>
+  <si>
+    <t>31.99</t>
+  </si>
+  <si>
+    <t>26.99</t>
+  </si>
+  <si>
+    <t>79.99</t>
+  </si>
+  <si>
+    <t>37.99</t>
+  </si>
+  <si>
+    <t>109.99</t>
+  </si>
+  <si>
+    <t>35.99</t>
+  </si>
+  <si>
+    <t>64.99</t>
+  </si>
+  <si>
+    <t>42.99</t>
+  </si>
+  <si>
+    <t>46.99</t>
+  </si>
+  <si>
+    <t>36.99</t>
+  </si>
+  <si>
+    <t>74.99</t>
+  </si>
+  <si>
+    <t>45.99</t>
   </si>
   <si>
     <t>54.99</t>
   </si>
   <si>
+    <t>62.99</t>
+  </si>
+  <si>
+    <t>75.99</t>
+  </si>
+  <si>
+    <t>32.99</t>
+  </si>
+  <si>
+    <t>30.99</t>
+  </si>
+  <si>
+    <t>27.99</t>
+  </si>
+  <si>
+    <t>38.99</t>
+  </si>
+  <si>
+    <t>2.99</t>
+  </si>
+  <si>
+    <t>4.99</t>
+  </si>
+  <si>
+    <t>dionaea muscipula</t>
+  </si>
+  <si>
+    <t>drosera</t>
+  </si>
+  <si>
+    <t>nepenthes</t>
+  </si>
+  <si>
     <t>other</t>
   </si>
   <si>
-    <t>dionaea muscipula</t>
-  </si>
-  <si>
-    <t>drosera</t>
-  </si>
-  <si>
     <t>sarracenia</t>
   </si>
   <si>
-    <t>nepenthes</t>
-  </si>
-  <si>
-    <t>cephalotus</t>
-  </si>
-  <si>
-    <t>pinguicula</t>
-  </si>
-  <si>
-    <t>utricularia</t>
-  </si>
-  <si>
-    <t>California Carnivores</t>
+    <t>Petflytap</t>
   </si>
 </sst>
 </file>
@@ -884,7 +1140,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G143"/>
+  <dimension ref="A1:G220"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -918,13 +1174,13 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>134</v>
+        <v>194</v>
       </c>
       <c r="F2" t="s">
-        <v>162</v>
+        <v>247</v>
       </c>
       <c r="G2" t="s">
-        <v>170</v>
+        <v>252</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -935,13 +1191,13 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>135</v>
+        <v>195</v>
       </c>
       <c r="F3" t="s">
-        <v>163</v>
+        <v>247</v>
       </c>
       <c r="G3" t="s">
-        <v>170</v>
+        <v>252</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -952,13 +1208,13 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>136</v>
+        <v>196</v>
       </c>
       <c r="F4" t="s">
-        <v>163</v>
+        <v>247</v>
       </c>
       <c r="G4" t="s">
-        <v>170</v>
+        <v>252</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -969,13 +1225,13 @@
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>137</v>
+        <v>197</v>
       </c>
       <c r="F5" t="s">
-        <v>163</v>
+        <v>247</v>
       </c>
       <c r="G5" t="s">
-        <v>170</v>
+        <v>252</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -986,13 +1242,13 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>136</v>
+        <v>198</v>
       </c>
       <c r="F6" t="s">
-        <v>163</v>
+        <v>247</v>
       </c>
       <c r="G6" t="s">
-        <v>170</v>
+        <v>252</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1003,13 +1259,13 @@
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>138</v>
+        <v>199</v>
       </c>
       <c r="F7" t="s">
-        <v>163</v>
+        <v>247</v>
       </c>
       <c r="G7" t="s">
-        <v>170</v>
+        <v>252</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1020,13 +1276,13 @@
         <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>136</v>
+        <v>196</v>
       </c>
       <c r="F8" t="s">
-        <v>163</v>
+        <v>247</v>
       </c>
       <c r="G8" t="s">
-        <v>170</v>
+        <v>252</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1037,13 +1293,13 @@
         <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>136</v>
+        <v>200</v>
       </c>
       <c r="F9" t="s">
-        <v>163</v>
+        <v>247</v>
       </c>
       <c r="G9" t="s">
-        <v>170</v>
+        <v>252</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1054,13 +1310,13 @@
         <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>136</v>
+        <v>201</v>
       </c>
       <c r="F10" t="s">
-        <v>163</v>
+        <v>247</v>
       </c>
       <c r="G10" t="s">
-        <v>170</v>
+        <v>252</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1071,13 +1327,13 @@
         <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>136</v>
+        <v>202</v>
       </c>
       <c r="F11" t="s">
-        <v>163</v>
+        <v>247</v>
       </c>
       <c r="G11" t="s">
-        <v>170</v>
+        <v>252</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1088,13 +1344,16 @@
         <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>139</v>
+        <v>197</v>
+      </c>
+      <c r="D12" t="s">
+        <v>214</v>
       </c>
       <c r="F12" t="s">
-        <v>163</v>
+        <v>247</v>
       </c>
       <c r="G12" t="s">
-        <v>170</v>
+        <v>252</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1105,13 +1364,13 @@
         <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>139</v>
+        <v>197</v>
       </c>
       <c r="F13" t="s">
-        <v>163</v>
+        <v>247</v>
       </c>
       <c r="G13" t="s">
-        <v>170</v>
+        <v>252</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1122,13 +1381,13 @@
         <v>18</v>
       </c>
       <c r="C14" t="s">
-        <v>140</v>
+        <v>203</v>
       </c>
       <c r="F14" t="s">
-        <v>164</v>
+        <v>247</v>
       </c>
       <c r="G14" t="s">
-        <v>170</v>
+        <v>252</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1139,13 +1398,13 @@
         <v>19</v>
       </c>
       <c r="C15" t="s">
-        <v>141</v>
+        <v>196</v>
       </c>
       <c r="F15" t="s">
-        <v>164</v>
+        <v>247</v>
       </c>
       <c r="G15" t="s">
-        <v>170</v>
+        <v>252</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1156,13 +1415,13 @@
         <v>20</v>
       </c>
       <c r="C16" t="s">
-        <v>141</v>
+        <v>204</v>
       </c>
       <c r="F16" t="s">
-        <v>164</v>
+        <v>247</v>
       </c>
       <c r="G16" t="s">
-        <v>170</v>
+        <v>252</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1173,13 +1432,13 @@
         <v>21</v>
       </c>
       <c r="C17" t="s">
-        <v>140</v>
+        <v>205</v>
       </c>
       <c r="F17" t="s">
-        <v>164</v>
+        <v>247</v>
       </c>
       <c r="G17" t="s">
-        <v>170</v>
+        <v>252</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1190,13 +1449,13 @@
         <v>22</v>
       </c>
       <c r="C18" t="s">
-        <v>135</v>
+        <v>206</v>
       </c>
       <c r="F18" t="s">
-        <v>164</v>
+        <v>247</v>
       </c>
       <c r="G18" t="s">
-        <v>170</v>
+        <v>252</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1207,13 +1466,13 @@
         <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>142</v>
+        <v>207</v>
       </c>
       <c r="F19" t="s">
-        <v>162</v>
+        <v>247</v>
       </c>
       <c r="G19" t="s">
-        <v>170</v>
+        <v>252</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1224,13 +1483,13 @@
         <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>141</v>
+        <v>205</v>
       </c>
       <c r="F20" t="s">
-        <v>164</v>
+        <v>247</v>
       </c>
       <c r="G20" t="s">
-        <v>170</v>
+        <v>252</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1241,13 +1500,13 @@
         <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>140</v>
+        <v>196</v>
       </c>
       <c r="F21" t="s">
-        <v>164</v>
+        <v>247</v>
       </c>
       <c r="G21" t="s">
-        <v>170</v>
+        <v>252</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1258,13 +1517,13 @@
         <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>140</v>
+        <v>208</v>
       </c>
       <c r="F22" t="s">
-        <v>164</v>
+        <v>247</v>
       </c>
       <c r="G22" t="s">
-        <v>170</v>
+        <v>252</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1275,13 +1534,13 @@
         <v>27</v>
       </c>
       <c r="C23" t="s">
-        <v>141</v>
+        <v>205</v>
       </c>
       <c r="F23" t="s">
-        <v>164</v>
+        <v>247</v>
       </c>
       <c r="G23" t="s">
-        <v>170</v>
+        <v>252</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1292,13 +1551,13 @@
         <v>28</v>
       </c>
       <c r="C24" t="s">
-        <v>141</v>
+        <v>198</v>
       </c>
       <c r="F24" t="s">
-        <v>164</v>
+        <v>247</v>
       </c>
       <c r="G24" t="s">
-        <v>170</v>
+        <v>252</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1309,13 +1568,13 @@
         <v>29</v>
       </c>
       <c r="C25" t="s">
-        <v>141</v>
+        <v>209</v>
       </c>
       <c r="F25" t="s">
-        <v>164</v>
+        <v>247</v>
       </c>
       <c r="G25" t="s">
-        <v>170</v>
+        <v>252</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1326,13 +1585,13 @@
         <v>30</v>
       </c>
       <c r="C26" t="s">
-        <v>141</v>
+        <v>207</v>
       </c>
       <c r="F26" t="s">
-        <v>164</v>
+        <v>247</v>
       </c>
       <c r="G26" t="s">
-        <v>170</v>
+        <v>252</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1343,13 +1602,13 @@
         <v>31</v>
       </c>
       <c r="C27" t="s">
-        <v>141</v>
+        <v>203</v>
       </c>
       <c r="F27" t="s">
-        <v>164</v>
+        <v>247</v>
       </c>
       <c r="G27" t="s">
-        <v>170</v>
+        <v>252</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1360,13 +1619,13 @@
         <v>32</v>
       </c>
       <c r="C28" t="s">
-        <v>141</v>
+        <v>210</v>
       </c>
       <c r="F28" t="s">
-        <v>164</v>
+        <v>247</v>
       </c>
       <c r="G28" t="s">
-        <v>170</v>
+        <v>252</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1377,13 +1636,13 @@
         <v>33</v>
       </c>
       <c r="C29" t="s">
-        <v>141</v>
+        <v>211</v>
       </c>
       <c r="F29" t="s">
-        <v>164</v>
+        <v>247</v>
       </c>
       <c r="G29" t="s">
-        <v>170</v>
+        <v>252</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1394,13 +1653,13 @@
         <v>34</v>
       </c>
       <c r="C30" t="s">
-        <v>141</v>
+        <v>212</v>
       </c>
       <c r="F30" t="s">
-        <v>164</v>
+        <v>247</v>
       </c>
       <c r="G30" t="s">
-        <v>170</v>
+        <v>252</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1411,13 +1670,13 @@
         <v>35</v>
       </c>
       <c r="C31" t="s">
-        <v>140</v>
+        <v>212</v>
       </c>
       <c r="F31" t="s">
-        <v>164</v>
+        <v>247</v>
       </c>
       <c r="G31" t="s">
-        <v>170</v>
+        <v>252</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1428,13 +1687,16 @@
         <v>36</v>
       </c>
       <c r="C32" t="s">
-        <v>141</v>
+        <v>213</v>
+      </c>
+      <c r="D32" t="s">
+        <v>197</v>
       </c>
       <c r="F32" t="s">
-        <v>164</v>
+        <v>247</v>
       </c>
       <c r="G32" t="s">
-        <v>170</v>
+        <v>252</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1445,13 +1707,16 @@
         <v>37</v>
       </c>
       <c r="C33" t="s">
-        <v>141</v>
+        <v>214</v>
+      </c>
+      <c r="D33" t="s">
+        <v>196</v>
       </c>
       <c r="F33" t="s">
-        <v>164</v>
+        <v>247</v>
       </c>
       <c r="G33" t="s">
-        <v>170</v>
+        <v>252</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1462,13 +1727,13 @@
         <v>38</v>
       </c>
       <c r="C34" t="s">
-        <v>143</v>
+        <v>199</v>
       </c>
       <c r="F34" t="s">
-        <v>164</v>
+        <v>247</v>
       </c>
       <c r="G34" t="s">
-        <v>170</v>
+        <v>252</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1476,16 +1741,16 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="C35" t="s">
-        <v>142</v>
+        <v>199</v>
       </c>
       <c r="F35" t="s">
-        <v>162</v>
+        <v>247</v>
       </c>
       <c r="G35" t="s">
-        <v>170</v>
+        <v>252</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1493,16 +1758,16 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C36" t="s">
-        <v>141</v>
+        <v>209</v>
       </c>
       <c r="F36" t="s">
-        <v>164</v>
+        <v>247</v>
       </c>
       <c r="G36" t="s">
-        <v>170</v>
+        <v>252</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1510,16 +1775,16 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C37" t="s">
-        <v>141</v>
+        <v>202</v>
       </c>
       <c r="F37" t="s">
-        <v>164</v>
+        <v>247</v>
       </c>
       <c r="G37" t="s">
-        <v>170</v>
+        <v>252</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1527,16 +1792,16 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C38" t="s">
-        <v>136</v>
+        <v>215</v>
       </c>
       <c r="F38" t="s">
-        <v>164</v>
+        <v>247</v>
       </c>
       <c r="G38" t="s">
-        <v>170</v>
+        <v>252</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -1544,16 +1809,16 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C39" t="s">
-        <v>139</v>
+        <v>214</v>
       </c>
       <c r="F39" t="s">
-        <v>164</v>
+        <v>247</v>
       </c>
       <c r="G39" t="s">
-        <v>170</v>
+        <v>252</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1561,16 +1826,16 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C40" t="s">
-        <v>144</v>
+        <v>199</v>
       </c>
       <c r="F40" t="s">
-        <v>164</v>
+        <v>247</v>
       </c>
       <c r="G40" t="s">
-        <v>170</v>
+        <v>252</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1578,19 +1843,16 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C41" t="s">
-        <v>137</v>
-      </c>
-      <c r="D41" t="s">
-        <v>139</v>
+        <v>205</v>
       </c>
       <c r="F41" t="s">
-        <v>164</v>
+        <v>247</v>
       </c>
       <c r="G41" t="s">
-        <v>170</v>
+        <v>252</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -1598,16 +1860,16 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C42" t="s">
-        <v>136</v>
+        <v>216</v>
       </c>
       <c r="F42" t="s">
-        <v>164</v>
+        <v>247</v>
       </c>
       <c r="G42" t="s">
-        <v>170</v>
+        <v>252</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -1615,16 +1877,16 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C43" t="s">
-        <v>136</v>
+        <v>202</v>
       </c>
       <c r="F43" t="s">
-        <v>164</v>
+        <v>247</v>
       </c>
       <c r="G43" t="s">
-        <v>170</v>
+        <v>252</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -1632,16 +1894,16 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C44" t="s">
-        <v>136</v>
+        <v>216</v>
       </c>
       <c r="F44" t="s">
-        <v>164</v>
+        <v>247</v>
       </c>
       <c r="G44" t="s">
-        <v>170</v>
+        <v>252</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -1649,16 +1911,16 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C45" t="s">
-        <v>136</v>
+        <v>216</v>
       </c>
       <c r="F45" t="s">
-        <v>164</v>
+        <v>247</v>
       </c>
       <c r="G45" t="s">
-        <v>170</v>
+        <v>252</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -1666,16 +1928,16 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="C46" t="s">
-        <v>142</v>
+        <v>194</v>
       </c>
       <c r="F46" t="s">
-        <v>162</v>
+        <v>248</v>
       </c>
       <c r="G46" t="s">
-        <v>170</v>
+        <v>252</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -1683,16 +1945,19 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C47" t="s">
-        <v>139</v>
+        <v>217</v>
+      </c>
+      <c r="D47" t="s">
+        <v>246</v>
       </c>
       <c r="F47" t="s">
-        <v>164</v>
+        <v>248</v>
       </c>
       <c r="G47" t="s">
-        <v>170</v>
+        <v>252</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -1700,16 +1965,16 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C48" t="s">
-        <v>135</v>
+        <v>216</v>
       </c>
       <c r="F48" t="s">
-        <v>164</v>
+        <v>248</v>
       </c>
       <c r="G48" t="s">
-        <v>170</v>
+        <v>252</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -1717,16 +1982,16 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="C49" t="s">
-        <v>144</v>
+        <v>196</v>
       </c>
       <c r="F49" t="s">
-        <v>164</v>
+        <v>248</v>
       </c>
       <c r="G49" t="s">
-        <v>170</v>
+        <v>252</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -1734,19 +1999,16 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C50" t="s">
-        <v>137</v>
-      </c>
-      <c r="D50" t="s">
-        <v>139</v>
+        <v>203</v>
       </c>
       <c r="F50" t="s">
-        <v>164</v>
+        <v>248</v>
       </c>
       <c r="G50" t="s">
-        <v>170</v>
+        <v>252</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -1754,19 +2016,16 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C51" t="s">
-        <v>145</v>
-      </c>
-      <c r="D51" t="s">
-        <v>146</v>
+        <v>194</v>
       </c>
       <c r="F51" t="s">
-        <v>164</v>
+        <v>248</v>
       </c>
       <c r="G51" t="s">
-        <v>170</v>
+        <v>252</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -1774,16 +2033,16 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="C52" t="s">
-        <v>142</v>
+        <v>199</v>
       </c>
       <c r="F52" t="s">
-        <v>162</v>
+        <v>248</v>
       </c>
       <c r="G52" t="s">
-        <v>170</v>
+        <v>252</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -1791,16 +2050,16 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C53" t="s">
-        <v>146</v>
+        <v>208</v>
       </c>
       <c r="F53" t="s">
-        <v>164</v>
+        <v>249</v>
       </c>
       <c r="G53" t="s">
-        <v>170</v>
+        <v>252</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -1808,16 +2067,16 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C54" t="s">
-        <v>146</v>
+        <v>218</v>
       </c>
       <c r="F54" t="s">
-        <v>164</v>
+        <v>249</v>
       </c>
       <c r="G54" t="s">
-        <v>170</v>
+        <v>252</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -1825,16 +2084,16 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C55" t="s">
-        <v>143</v>
+        <v>219</v>
       </c>
       <c r="F55" t="s">
-        <v>164</v>
+        <v>249</v>
       </c>
       <c r="G55" t="s">
-        <v>170</v>
+        <v>252</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -1842,16 +2101,16 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C56" t="s">
-        <v>146</v>
+        <v>220</v>
       </c>
       <c r="F56" t="s">
-        <v>164</v>
+        <v>249</v>
       </c>
       <c r="G56" t="s">
-        <v>170</v>
+        <v>252</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -1859,16 +2118,16 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C57" t="s">
-        <v>143</v>
+        <v>221</v>
       </c>
       <c r="F57" t="s">
-        <v>164</v>
+        <v>249</v>
       </c>
       <c r="G57" t="s">
-        <v>170</v>
+        <v>252</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -1876,16 +2135,16 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C58" t="s">
-        <v>146</v>
+        <v>197</v>
       </c>
       <c r="F58" t="s">
-        <v>164</v>
+        <v>249</v>
       </c>
       <c r="G58" t="s">
-        <v>170</v>
+        <v>252</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -1893,16 +2152,16 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>6</v>
+        <v>63</v>
       </c>
       <c r="C59" t="s">
-        <v>134</v>
+        <v>222</v>
       </c>
       <c r="F59" t="s">
-        <v>162</v>
+        <v>249</v>
       </c>
       <c r="G59" t="s">
-        <v>170</v>
+        <v>252</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -1910,16 +2169,16 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C60" t="s">
-        <v>147</v>
+        <v>213</v>
       </c>
       <c r="F60" t="s">
-        <v>165</v>
+        <v>249</v>
       </c>
       <c r="G60" t="s">
-        <v>170</v>
+        <v>252</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -1927,16 +2186,16 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C61" t="s">
-        <v>148</v>
+        <v>196</v>
       </c>
       <c r="F61" t="s">
-        <v>165</v>
+        <v>249</v>
       </c>
       <c r="G61" t="s">
-        <v>170</v>
+        <v>252</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -1944,16 +2203,16 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C62" t="s">
-        <v>147</v>
+        <v>210</v>
       </c>
       <c r="F62" t="s">
-        <v>165</v>
+        <v>249</v>
       </c>
       <c r="G62" t="s">
-        <v>170</v>
+        <v>252</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -1961,16 +2220,16 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C63" t="s">
-        <v>147</v>
+        <v>201</v>
       </c>
       <c r="F63" t="s">
-        <v>165</v>
+        <v>249</v>
       </c>
       <c r="G63" t="s">
-        <v>170</v>
+        <v>252</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -1978,16 +2237,16 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C64" t="s">
-        <v>149</v>
+        <v>212</v>
       </c>
       <c r="F64" t="s">
-        <v>165</v>
+        <v>249</v>
       </c>
       <c r="G64" t="s">
-        <v>170</v>
+        <v>252</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -1995,16 +2254,16 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C65" t="s">
-        <v>147</v>
+        <v>208</v>
       </c>
       <c r="F65" t="s">
-        <v>165</v>
+        <v>249</v>
       </c>
       <c r="G65" t="s">
-        <v>170</v>
+        <v>252</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -2012,16 +2271,16 @@
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C66" t="s">
-        <v>150</v>
+        <v>197</v>
       </c>
       <c r="F66" t="s">
-        <v>165</v>
+        <v>249</v>
       </c>
       <c r="G66" t="s">
-        <v>170</v>
+        <v>252</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -2029,16 +2288,16 @@
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C67" t="s">
-        <v>150</v>
+        <v>223</v>
       </c>
       <c r="F67" t="s">
-        <v>165</v>
+        <v>249</v>
       </c>
       <c r="G67" t="s">
-        <v>170</v>
+        <v>252</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -2046,16 +2305,16 @@
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C68" t="s">
-        <v>147</v>
+        <v>196</v>
       </c>
       <c r="F68" t="s">
-        <v>165</v>
+        <v>249</v>
       </c>
       <c r="G68" t="s">
-        <v>170</v>
+        <v>252</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -2063,16 +2322,16 @@
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>6</v>
+        <v>73</v>
       </c>
       <c r="C69" t="s">
-        <v>134</v>
+        <v>213</v>
       </c>
       <c r="F69" t="s">
-        <v>162</v>
+        <v>249</v>
       </c>
       <c r="G69" t="s">
-        <v>170</v>
+        <v>252</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -2080,16 +2339,16 @@
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C70" t="s">
-        <v>141</v>
+        <v>205</v>
       </c>
       <c r="F70" t="s">
-        <v>165</v>
+        <v>249</v>
       </c>
       <c r="G70" t="s">
-        <v>170</v>
+        <v>252</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -2097,16 +2356,16 @@
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="C71" t="s">
-        <v>150</v>
+        <v>215</v>
       </c>
       <c r="F71" t="s">
-        <v>165</v>
+        <v>249</v>
       </c>
       <c r="G71" t="s">
-        <v>170</v>
+        <v>252</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -2114,16 +2373,16 @@
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="C72" t="s">
-        <v>150</v>
+        <v>224</v>
       </c>
       <c r="F72" t="s">
-        <v>165</v>
+        <v>249</v>
       </c>
       <c r="G72" t="s">
-        <v>170</v>
+        <v>252</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -2131,16 +2390,16 @@
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="C73" t="s">
-        <v>147</v>
+        <v>225</v>
       </c>
       <c r="F73" t="s">
-        <v>165</v>
+        <v>249</v>
       </c>
       <c r="G73" t="s">
-        <v>170</v>
+        <v>252</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -2148,16 +2407,16 @@
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="C74" t="s">
-        <v>147</v>
+        <v>213</v>
       </c>
       <c r="F74" t="s">
-        <v>165</v>
+        <v>249</v>
       </c>
       <c r="G74" t="s">
-        <v>170</v>
+        <v>252</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -2165,16 +2424,16 @@
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="C75" t="s">
-        <v>147</v>
+        <v>197</v>
       </c>
       <c r="F75" t="s">
-        <v>165</v>
+        <v>249</v>
       </c>
       <c r="G75" t="s">
-        <v>170</v>
+        <v>252</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -2182,16 +2441,16 @@
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="C76" t="s">
-        <v>148</v>
+        <v>204</v>
       </c>
       <c r="F76" t="s">
-        <v>165</v>
+        <v>249</v>
       </c>
       <c r="G76" t="s">
-        <v>170</v>
+        <v>252</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -2199,16 +2458,16 @@
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C77" t="s">
-        <v>147</v>
+        <v>218</v>
       </c>
       <c r="F77" t="s">
-        <v>165</v>
+        <v>249</v>
       </c>
       <c r="G77" t="s">
-        <v>170</v>
+        <v>252</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -2216,16 +2475,16 @@
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C78" t="s">
-        <v>151</v>
+        <v>208</v>
       </c>
       <c r="F78" t="s">
-        <v>165</v>
+        <v>249</v>
       </c>
       <c r="G78" t="s">
-        <v>170</v>
+        <v>252</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -2233,16 +2492,16 @@
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="C79" t="s">
-        <v>148</v>
+        <v>222</v>
       </c>
       <c r="F79" t="s">
-        <v>165</v>
+        <v>249</v>
       </c>
       <c r="G79" t="s">
-        <v>170</v>
+        <v>252</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -2250,16 +2509,16 @@
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="C80" t="s">
-        <v>148</v>
+        <v>208</v>
       </c>
       <c r="F80" t="s">
-        <v>165</v>
+        <v>249</v>
       </c>
       <c r="G80" t="s">
-        <v>170</v>
+        <v>252</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -2267,16 +2526,16 @@
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="C81" t="s">
-        <v>147</v>
+        <v>214</v>
       </c>
       <c r="F81" t="s">
-        <v>165</v>
+        <v>249</v>
       </c>
       <c r="G81" t="s">
-        <v>170</v>
+        <v>252</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -2284,16 +2543,16 @@
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="C82" t="s">
-        <v>147</v>
+        <v>226</v>
       </c>
       <c r="F82" t="s">
-        <v>165</v>
+        <v>249</v>
       </c>
       <c r="G82" t="s">
-        <v>170</v>
+        <v>252</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -2301,16 +2560,16 @@
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="C83" t="s">
-        <v>150</v>
+        <v>218</v>
       </c>
       <c r="F83" t="s">
-        <v>165</v>
+        <v>249</v>
       </c>
       <c r="G83" t="s">
-        <v>170</v>
+        <v>252</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -2318,16 +2577,16 @@
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="C84" t="s">
-        <v>150</v>
+        <v>224</v>
       </c>
       <c r="F84" t="s">
-        <v>165</v>
+        <v>249</v>
       </c>
       <c r="G84" t="s">
-        <v>170</v>
+        <v>252</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -2335,16 +2594,16 @@
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="C85" t="s">
-        <v>150</v>
+        <v>220</v>
       </c>
       <c r="F85" t="s">
-        <v>165</v>
+        <v>249</v>
       </c>
       <c r="G85" t="s">
-        <v>170</v>
+        <v>252</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -2352,16 +2611,16 @@
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="C86" t="s">
-        <v>152</v>
+        <v>227</v>
       </c>
       <c r="F86" t="s">
-        <v>165</v>
+        <v>249</v>
       </c>
       <c r="G86" t="s">
-        <v>170</v>
+        <v>252</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -2369,16 +2628,16 @@
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="C87" t="s">
-        <v>150</v>
+        <v>228</v>
       </c>
       <c r="F87" t="s">
-        <v>165</v>
+        <v>249</v>
       </c>
       <c r="G87" t="s">
-        <v>170</v>
+        <v>252</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -2386,19 +2645,16 @@
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="C88" t="s">
-        <v>148</v>
-      </c>
-      <c r="D88" t="s">
-        <v>141</v>
+        <v>209</v>
       </c>
       <c r="F88" t="s">
-        <v>165</v>
+        <v>249</v>
       </c>
       <c r="G88" t="s">
-        <v>170</v>
+        <v>252</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -2406,16 +2662,16 @@
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="C89" t="s">
-        <v>144</v>
+        <v>221</v>
       </c>
       <c r="F89" t="s">
-        <v>165</v>
+        <v>249</v>
       </c>
       <c r="G89" t="s">
-        <v>170</v>
+        <v>252</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -2423,16 +2679,16 @@
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="C90" t="s">
-        <v>141</v>
+        <v>218</v>
       </c>
       <c r="F90" t="s">
-        <v>165</v>
+        <v>249</v>
       </c>
       <c r="G90" t="s">
-        <v>170</v>
+        <v>252</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -2440,16 +2696,16 @@
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="C91" t="s">
-        <v>153</v>
+        <v>197</v>
       </c>
       <c r="F91" t="s">
-        <v>165</v>
+        <v>249</v>
       </c>
       <c r="G91" t="s">
-        <v>170</v>
+        <v>252</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -2457,16 +2713,16 @@
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="C92" t="s">
-        <v>147</v>
+        <v>209</v>
       </c>
       <c r="F92" t="s">
-        <v>165</v>
+        <v>249</v>
       </c>
       <c r="G92" t="s">
-        <v>170</v>
+        <v>252</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -2474,16 +2730,16 @@
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="C93" t="s">
-        <v>147</v>
+        <v>198</v>
       </c>
       <c r="F93" t="s">
-        <v>165</v>
+        <v>249</v>
       </c>
       <c r="G93" t="s">
-        <v>170</v>
+        <v>252</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -2491,16 +2747,16 @@
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="C94" t="s">
-        <v>153</v>
+        <v>210</v>
       </c>
       <c r="F94" t="s">
-        <v>165</v>
+        <v>249</v>
       </c>
       <c r="G94" t="s">
-        <v>170</v>
+        <v>252</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -2508,16 +2764,16 @@
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="C95" t="s">
-        <v>147</v>
+        <v>229</v>
       </c>
       <c r="F95" t="s">
-        <v>165</v>
+        <v>249</v>
       </c>
       <c r="G95" t="s">
-        <v>170</v>
+        <v>252</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -2525,16 +2781,16 @@
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="C96" t="s">
-        <v>152</v>
+        <v>221</v>
       </c>
       <c r="F96" t="s">
-        <v>165</v>
+        <v>249</v>
       </c>
       <c r="G96" t="s">
-        <v>170</v>
+        <v>252</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -2542,19 +2798,16 @@
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="C97" t="s">
-        <v>150</v>
-      </c>
-      <c r="D97" t="s">
-        <v>147</v>
+        <v>228</v>
       </c>
       <c r="F97" t="s">
-        <v>165</v>
+        <v>249</v>
       </c>
       <c r="G97" t="s">
-        <v>170</v>
+        <v>252</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -2562,16 +2815,16 @@
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>23</v>
+        <v>102</v>
       </c>
       <c r="C98" t="s">
-        <v>142</v>
+        <v>214</v>
       </c>
       <c r="F98" t="s">
-        <v>162</v>
+        <v>249</v>
       </c>
       <c r="G98" t="s">
-        <v>170</v>
+        <v>252</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -2579,16 +2832,16 @@
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="C99" t="s">
-        <v>136</v>
+        <v>214</v>
       </c>
       <c r="F99" t="s">
-        <v>166</v>
+        <v>249</v>
       </c>
       <c r="G99" t="s">
-        <v>170</v>
+        <v>252</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -2596,16 +2849,16 @@
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="C100" t="s">
-        <v>154</v>
+        <v>230</v>
       </c>
       <c r="F100" t="s">
-        <v>166</v>
+        <v>249</v>
       </c>
       <c r="G100" t="s">
-        <v>170</v>
+        <v>252</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -2613,16 +2866,16 @@
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="C101" t="s">
-        <v>155</v>
+        <v>196</v>
       </c>
       <c r="F101" t="s">
-        <v>166</v>
+        <v>249</v>
       </c>
       <c r="G101" t="s">
-        <v>170</v>
+        <v>252</v>
       </c>
     </row>
     <row r="102" spans="1:7">
@@ -2630,16 +2883,16 @@
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="C102" t="s">
-        <v>156</v>
+        <v>218</v>
       </c>
       <c r="F102" t="s">
-        <v>166</v>
+        <v>249</v>
       </c>
       <c r="G102" t="s">
-        <v>170</v>
+        <v>252</v>
       </c>
     </row>
     <row r="103" spans="1:7">
@@ -2647,16 +2900,16 @@
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="C103" t="s">
-        <v>157</v>
+        <v>231</v>
       </c>
       <c r="F103" t="s">
-        <v>166</v>
+        <v>249</v>
       </c>
       <c r="G103" t="s">
-        <v>170</v>
+        <v>252</v>
       </c>
     </row>
     <row r="104" spans="1:7">
@@ -2664,16 +2917,16 @@
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="C104" t="s">
-        <v>138</v>
+        <v>218</v>
       </c>
       <c r="F104" t="s">
-        <v>166</v>
+        <v>249</v>
       </c>
       <c r="G104" t="s">
-        <v>170</v>
+        <v>252</v>
       </c>
     </row>
     <row r="105" spans="1:7">
@@ -2681,16 +2934,16 @@
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="C105" t="s">
-        <v>135</v>
+        <v>231</v>
       </c>
       <c r="F105" t="s">
-        <v>166</v>
+        <v>249</v>
       </c>
       <c r="G105" t="s">
-        <v>170</v>
+        <v>252</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -2698,16 +2951,16 @@
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="C106" t="s">
-        <v>139</v>
+        <v>214</v>
       </c>
       <c r="F106" t="s">
-        <v>166</v>
+        <v>249</v>
       </c>
       <c r="G106" t="s">
-        <v>170</v>
+        <v>252</v>
       </c>
     </row>
     <row r="107" spans="1:7">
@@ -2715,16 +2968,16 @@
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="C107" t="s">
-        <v>136</v>
+        <v>224</v>
       </c>
       <c r="F107" t="s">
-        <v>166</v>
+        <v>249</v>
       </c>
       <c r="G107" t="s">
-        <v>170</v>
+        <v>252</v>
       </c>
     </row>
     <row r="108" spans="1:7">
@@ -2732,16 +2985,16 @@
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="C108" t="s">
-        <v>135</v>
+        <v>204</v>
       </c>
       <c r="F108" t="s">
-        <v>166</v>
+        <v>249</v>
       </c>
       <c r="G108" t="s">
-        <v>170</v>
+        <v>252</v>
       </c>
     </row>
     <row r="109" spans="1:7">
@@ -2749,19 +3002,16 @@
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="C109" t="s">
-        <v>158</v>
-      </c>
-      <c r="D109" t="s">
-        <v>157</v>
+        <v>214</v>
       </c>
       <c r="F109" t="s">
-        <v>166</v>
+        <v>249</v>
       </c>
       <c r="G109" t="s">
-        <v>170</v>
+        <v>252</v>
       </c>
     </row>
     <row r="110" spans="1:7">
@@ -2769,16 +3019,16 @@
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>23</v>
+        <v>114</v>
       </c>
       <c r="C110" t="s">
-        <v>142</v>
+        <v>221</v>
       </c>
       <c r="F110" t="s">
-        <v>162</v>
+        <v>249</v>
       </c>
       <c r="G110" t="s">
-        <v>170</v>
+        <v>252</v>
       </c>
     </row>
     <row r="111" spans="1:7">
@@ -2786,16 +3036,16 @@
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="C111" t="s">
-        <v>139</v>
+        <v>232</v>
       </c>
       <c r="F111" t="s">
-        <v>166</v>
+        <v>249</v>
       </c>
       <c r="G111" t="s">
-        <v>170</v>
+        <v>252</v>
       </c>
     </row>
     <row r="112" spans="1:7">
@@ -2803,19 +3053,16 @@
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="C112" t="s">
-        <v>153</v>
-      </c>
-      <c r="D112" t="s">
-        <v>161</v>
+        <v>233</v>
       </c>
       <c r="F112" t="s">
-        <v>166</v>
+        <v>249</v>
       </c>
       <c r="G112" t="s">
-        <v>170</v>
+        <v>252</v>
       </c>
     </row>
     <row r="113" spans="1:7">
@@ -2823,16 +3070,16 @@
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>23</v>
+        <v>117</v>
       </c>
       <c r="C113" t="s">
-        <v>142</v>
+        <v>197</v>
       </c>
       <c r="F113" t="s">
-        <v>162</v>
+        <v>249</v>
       </c>
       <c r="G113" t="s">
-        <v>170</v>
+        <v>252</v>
       </c>
     </row>
     <row r="114" spans="1:7">
@@ -2840,16 +3087,16 @@
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>23</v>
+        <v>118</v>
       </c>
       <c r="C114" t="s">
-        <v>142</v>
+        <v>214</v>
       </c>
       <c r="F114" t="s">
-        <v>162</v>
+        <v>249</v>
       </c>
       <c r="G114" t="s">
-        <v>170</v>
+        <v>252</v>
       </c>
     </row>
     <row r="115" spans="1:7">
@@ -2857,16 +3104,16 @@
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="C115" t="s">
-        <v>143</v>
+        <v>197</v>
       </c>
       <c r="F115" t="s">
-        <v>167</v>
+        <v>249</v>
       </c>
       <c r="G115" t="s">
-        <v>170</v>
+        <v>252</v>
       </c>
     </row>
     <row r="116" spans="1:7">
@@ -2874,16 +3121,16 @@
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="C116" t="s">
-        <v>143</v>
+        <v>234</v>
       </c>
       <c r="F116" t="s">
-        <v>167</v>
+        <v>249</v>
       </c>
       <c r="G116" t="s">
-        <v>170</v>
+        <v>252</v>
       </c>
     </row>
     <row r="117" spans="1:7">
@@ -2891,16 +3138,16 @@
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="C117" t="s">
-        <v>143</v>
+        <v>218</v>
       </c>
       <c r="F117" t="s">
-        <v>167</v>
+        <v>249</v>
       </c>
       <c r="G117" t="s">
-        <v>170</v>
+        <v>252</v>
       </c>
     </row>
     <row r="118" spans="1:7">
@@ -2908,16 +3155,16 @@
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>23</v>
+        <v>122</v>
       </c>
       <c r="C118" t="s">
-        <v>142</v>
+        <v>197</v>
       </c>
       <c r="F118" t="s">
-        <v>162</v>
+        <v>249</v>
       </c>
       <c r="G118" t="s">
-        <v>170</v>
+        <v>252</v>
       </c>
     </row>
     <row r="119" spans="1:7">
@@ -2925,16 +3172,16 @@
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="C119" t="s">
-        <v>152</v>
+        <v>218</v>
       </c>
       <c r="F119" t="s">
-        <v>168</v>
+        <v>249</v>
       </c>
       <c r="G119" t="s">
-        <v>170</v>
+        <v>252</v>
       </c>
     </row>
     <row r="120" spans="1:7">
@@ -2942,16 +3189,16 @@
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>23</v>
+        <v>124</v>
       </c>
       <c r="C120" t="s">
-        <v>142</v>
+        <v>212</v>
       </c>
       <c r="F120" t="s">
-        <v>162</v>
+        <v>249</v>
       </c>
       <c r="G120" t="s">
-        <v>170</v>
+        <v>252</v>
       </c>
     </row>
     <row r="121" spans="1:7">
@@ -2959,16 +3206,16 @@
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="C121" t="s">
-        <v>135</v>
+        <v>213</v>
       </c>
       <c r="F121" t="s">
-        <v>168</v>
+        <v>249</v>
       </c>
       <c r="G121" t="s">
-        <v>170</v>
+        <v>252</v>
       </c>
     </row>
     <row r="122" spans="1:7">
@@ -2976,16 +3223,16 @@
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="C122" t="s">
-        <v>139</v>
+        <v>197</v>
       </c>
       <c r="F122" t="s">
-        <v>168</v>
+        <v>249</v>
       </c>
       <c r="G122" t="s">
-        <v>170</v>
+        <v>252</v>
       </c>
     </row>
     <row r="123" spans="1:7">
@@ -2993,16 +3240,16 @@
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="C123" t="s">
-        <v>146</v>
+        <v>218</v>
       </c>
       <c r="F123" t="s">
-        <v>168</v>
+        <v>249</v>
       </c>
       <c r="G123" t="s">
-        <v>170</v>
+        <v>252</v>
       </c>
     </row>
     <row r="124" spans="1:7">
@@ -3010,16 +3257,16 @@
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="C124" t="s">
-        <v>146</v>
+        <v>210</v>
       </c>
       <c r="F124" t="s">
-        <v>168</v>
+        <v>249</v>
       </c>
       <c r="G124" t="s">
-        <v>170</v>
+        <v>252</v>
       </c>
     </row>
     <row r="125" spans="1:7">
@@ -3027,16 +3274,16 @@
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="C125" t="s">
-        <v>137</v>
+        <v>231</v>
       </c>
       <c r="F125" t="s">
-        <v>168</v>
+        <v>249</v>
       </c>
       <c r="G125" t="s">
-        <v>170</v>
+        <v>252</v>
       </c>
     </row>
     <row r="126" spans="1:7">
@@ -3044,16 +3291,16 @@
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="C126" t="s">
-        <v>146</v>
+        <v>197</v>
       </c>
       <c r="F126" t="s">
-        <v>168</v>
+        <v>249</v>
       </c>
       <c r="G126" t="s">
-        <v>170</v>
+        <v>252</v>
       </c>
     </row>
     <row r="127" spans="1:7">
@@ -3061,16 +3308,16 @@
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="C127" t="s">
-        <v>139</v>
+        <v>235</v>
       </c>
       <c r="F127" t="s">
-        <v>168</v>
+        <v>249</v>
       </c>
       <c r="G127" t="s">
-        <v>170</v>
+        <v>252</v>
       </c>
     </row>
     <row r="128" spans="1:7">
@@ -3078,16 +3325,16 @@
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="C128" t="s">
-        <v>139</v>
+        <v>212</v>
       </c>
       <c r="F128" t="s">
-        <v>168</v>
+        <v>249</v>
       </c>
       <c r="G128" t="s">
-        <v>170</v>
+        <v>252</v>
       </c>
     </row>
     <row r="129" spans="1:7">
@@ -3095,16 +3342,16 @@
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="C129" t="s">
-        <v>146</v>
+        <v>201</v>
       </c>
       <c r="F129" t="s">
-        <v>168</v>
+        <v>249</v>
       </c>
       <c r="G129" t="s">
-        <v>170</v>
+        <v>252</v>
       </c>
     </row>
     <row r="130" spans="1:7">
@@ -3112,16 +3359,19 @@
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="C130" t="s">
-        <v>139</v>
+        <v>213</v>
+      </c>
+      <c r="D130" t="s">
+        <v>208</v>
       </c>
       <c r="F130" t="s">
-        <v>168</v>
+        <v>249</v>
       </c>
       <c r="G130" t="s">
-        <v>170</v>
+        <v>252</v>
       </c>
     </row>
     <row r="131" spans="1:7">
@@ -3129,16 +3379,16 @@
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="C131" t="s">
-        <v>146</v>
+        <v>215</v>
       </c>
       <c r="F131" t="s">
-        <v>168</v>
+        <v>249</v>
       </c>
       <c r="G131" t="s">
-        <v>170</v>
+        <v>252</v>
       </c>
     </row>
     <row r="132" spans="1:7">
@@ -3146,16 +3396,16 @@
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="C132" t="s">
-        <v>139</v>
+        <v>213</v>
       </c>
       <c r="F132" t="s">
-        <v>168</v>
+        <v>249</v>
       </c>
       <c r="G132" t="s">
-        <v>170</v>
+        <v>252</v>
       </c>
     </row>
     <row r="133" spans="1:7">
@@ -3163,19 +3413,16 @@
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="C133" t="s">
-        <v>152</v>
-      </c>
-      <c r="D133" t="s">
-        <v>139</v>
+        <v>236</v>
       </c>
       <c r="F133" t="s">
-        <v>168</v>
+        <v>249</v>
       </c>
       <c r="G133" t="s">
-        <v>170</v>
+        <v>252</v>
       </c>
     </row>
     <row r="134" spans="1:7">
@@ -3183,19 +3430,16 @@
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="C134" t="s">
-        <v>139</v>
-      </c>
-      <c r="D134" t="s">
-        <v>136</v>
+        <v>232</v>
       </c>
       <c r="F134" t="s">
-        <v>168</v>
+        <v>249</v>
       </c>
       <c r="G134" t="s">
-        <v>170</v>
+        <v>252</v>
       </c>
     </row>
     <row r="135" spans="1:7">
@@ -3203,19 +3447,16 @@
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="C135" t="s">
-        <v>152</v>
-      </c>
-      <c r="D135" t="s">
-        <v>139</v>
+        <v>237</v>
       </c>
       <c r="F135" t="s">
-        <v>168</v>
+        <v>249</v>
       </c>
       <c r="G135" t="s">
-        <v>170</v>
+        <v>252</v>
       </c>
     </row>
     <row r="136" spans="1:7">
@@ -3223,19 +3464,16 @@
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="C136" t="s">
-        <v>159</v>
-      </c>
-      <c r="D136" t="s">
-        <v>137</v>
+        <v>238</v>
       </c>
       <c r="F136" t="s">
-        <v>168</v>
+        <v>249</v>
       </c>
       <c r="G136" t="s">
-        <v>170</v>
+        <v>252</v>
       </c>
     </row>
     <row r="137" spans="1:7">
@@ -3243,19 +3481,16 @@
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="C137" t="s">
-        <v>159</v>
-      </c>
-      <c r="D137" t="s">
-        <v>137</v>
+        <v>239</v>
       </c>
       <c r="F137" t="s">
-        <v>168</v>
+        <v>249</v>
       </c>
       <c r="G137" t="s">
-        <v>170</v>
+        <v>252</v>
       </c>
     </row>
     <row r="138" spans="1:7">
@@ -3263,19 +3498,16 @@
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="C138" t="s">
-        <v>160</v>
-      </c>
-      <c r="D138" t="s">
-        <v>136</v>
+        <v>197</v>
       </c>
       <c r="F138" t="s">
-        <v>168</v>
+        <v>249</v>
       </c>
       <c r="G138" t="s">
-        <v>170</v>
+        <v>252</v>
       </c>
     </row>
     <row r="139" spans="1:7">
@@ -3283,19 +3515,16 @@
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="C139" t="s">
-        <v>159</v>
-      </c>
-      <c r="D139" t="s">
-        <v>137</v>
+        <v>235</v>
       </c>
       <c r="F139" t="s">
-        <v>168</v>
+        <v>249</v>
       </c>
       <c r="G139" t="s">
-        <v>170</v>
+        <v>252</v>
       </c>
     </row>
     <row r="140" spans="1:7">
@@ -3303,16 +3532,16 @@
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="C140" t="s">
-        <v>136</v>
+        <v>213</v>
       </c>
       <c r="F140" t="s">
-        <v>168</v>
+        <v>249</v>
       </c>
       <c r="G140" t="s">
-        <v>170</v>
+        <v>252</v>
       </c>
     </row>
     <row r="141" spans="1:7">
@@ -3320,16 +3549,16 @@
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>23</v>
+        <v>145</v>
       </c>
       <c r="C141" t="s">
-        <v>142</v>
+        <v>204</v>
       </c>
       <c r="F141" t="s">
-        <v>162</v>
+        <v>249</v>
       </c>
       <c r="G141" t="s">
-        <v>170</v>
+        <v>252</v>
       </c>
     </row>
     <row r="142" spans="1:7">
@@ -3337,16 +3566,16 @@
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>23</v>
+        <v>146</v>
       </c>
       <c r="C142" t="s">
-        <v>142</v>
+        <v>231</v>
       </c>
       <c r="F142" t="s">
-        <v>162</v>
+        <v>249</v>
       </c>
       <c r="G142" t="s">
-        <v>170</v>
+        <v>252</v>
       </c>
     </row>
     <row r="143" spans="1:7">
@@ -3354,16 +3583,1328 @@
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="C143" t="s">
+        <v>210</v>
+      </c>
+      <c r="F143" t="s">
+        <v>249</v>
+      </c>
+      <c r="G143" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7">
+      <c r="A144" s="1">
+        <v>142</v>
+      </c>
+      <c r="B144" t="s">
+        <v>148</v>
+      </c>
+      <c r="C144" t="s">
+        <v>224</v>
+      </c>
+      <c r="F144" t="s">
+        <v>249</v>
+      </c>
+      <c r="G144" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7">
+      <c r="A145" s="1">
+        <v>143</v>
+      </c>
+      <c r="B145" t="s">
+        <v>149</v>
+      </c>
+      <c r="C145" t="s">
+        <v>209</v>
+      </c>
+      <c r="F145" t="s">
+        <v>249</v>
+      </c>
+      <c r="G145" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7">
+      <c r="A146" s="1">
+        <v>144</v>
+      </c>
+      <c r="B146" t="s">
+        <v>150</v>
+      </c>
+      <c r="C146" t="s">
+        <v>240</v>
+      </c>
+      <c r="F146" t="s">
+        <v>249</v>
+      </c>
+      <c r="G146" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7">
+      <c r="A147" s="1">
+        <v>145</v>
+      </c>
+      <c r="B147" t="s">
+        <v>151</v>
+      </c>
+      <c r="C147" t="s">
+        <v>222</v>
+      </c>
+      <c r="F147" t="s">
+        <v>249</v>
+      </c>
+      <c r="G147" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7">
+      <c r="A148" s="1">
+        <v>146</v>
+      </c>
+      <c r="B148" t="s">
+        <v>152</v>
+      </c>
+      <c r="C148" t="s">
+        <v>213</v>
+      </c>
+      <c r="F148" t="s">
+        <v>249</v>
+      </c>
+      <c r="G148" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7">
+      <c r="A149" s="1">
+        <v>147</v>
+      </c>
+      <c r="B149" t="s">
+        <v>153</v>
+      </c>
+      <c r="C149" t="s">
+        <v>196</v>
+      </c>
+      <c r="F149" t="s">
+        <v>249</v>
+      </c>
+      <c r="G149" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7">
+      <c r="A150" s="1">
+        <v>148</v>
+      </c>
+      <c r="B150" t="s">
+        <v>154</v>
+      </c>
+      <c r="C150" t="s">
+        <v>204</v>
+      </c>
+      <c r="F150" t="s">
+        <v>249</v>
+      </c>
+      <c r="G150" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7">
+      <c r="A151" s="1">
+        <v>149</v>
+      </c>
+      <c r="B151" t="s">
+        <v>155</v>
+      </c>
+      <c r="C151" t="s">
+        <v>224</v>
+      </c>
+      <c r="F151" t="s">
+        <v>249</v>
+      </c>
+      <c r="G151" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7">
+      <c r="A152" s="1">
+        <v>150</v>
+      </c>
+      <c r="B152" t="s">
+        <v>156</v>
+      </c>
+      <c r="C152" t="s">
+        <v>204</v>
+      </c>
+      <c r="F152" t="s">
+        <v>249</v>
+      </c>
+      <c r="G152" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7">
+      <c r="A153" s="1">
+        <v>151</v>
+      </c>
+      <c r="B153" t="s">
+        <v>157</v>
+      </c>
+      <c r="C153" t="s">
+        <v>218</v>
+      </c>
+      <c r="F153" t="s">
+        <v>249</v>
+      </c>
+      <c r="G153" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7">
+      <c r="A154" s="1">
+        <v>152</v>
+      </c>
+      <c r="B154" t="s">
+        <v>158</v>
+      </c>
+      <c r="C154" t="s">
+        <v>204</v>
+      </c>
+      <c r="F154" t="s">
+        <v>249</v>
+      </c>
+      <c r="G154" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7">
+      <c r="A155" s="1">
+        <v>153</v>
+      </c>
+      <c r="B155" t="s">
+        <v>159</v>
+      </c>
+      <c r="C155" t="s">
+        <v>197</v>
+      </c>
+      <c r="F155" t="s">
+        <v>249</v>
+      </c>
+      <c r="G155" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7">
+      <c r="A156" s="1">
+        <v>154</v>
+      </c>
+      <c r="B156" t="s">
+        <v>160</v>
+      </c>
+      <c r="C156" t="s">
+        <v>221</v>
+      </c>
+      <c r="F156" t="s">
+        <v>249</v>
+      </c>
+      <c r="G156" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7">
+      <c r="A157" s="1">
+        <v>155</v>
+      </c>
+      <c r="B157" t="s">
+        <v>161</v>
+      </c>
+      <c r="C157" t="s">
+        <v>225</v>
+      </c>
+      <c r="F157" t="s">
+        <v>249</v>
+      </c>
+      <c r="G157" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7">
+      <c r="A158" s="1">
+        <v>156</v>
+      </c>
+      <c r="B158" t="s">
+        <v>162</v>
+      </c>
+      <c r="C158" t="s">
+        <v>201</v>
+      </c>
+      <c r="F158" t="s">
+        <v>249</v>
+      </c>
+      <c r="G158" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7">
+      <c r="A159" s="1">
+        <v>157</v>
+      </c>
+      <c r="B159" t="s">
+        <v>163</v>
+      </c>
+      <c r="C159" t="s">
+        <v>234</v>
+      </c>
+      <c r="F159" t="s">
+        <v>249</v>
+      </c>
+      <c r="G159" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7">
+      <c r="A160" s="1">
+        <v>158</v>
+      </c>
+      <c r="B160" t="s">
+        <v>164</v>
+      </c>
+      <c r="C160" t="s">
+        <v>241</v>
+      </c>
+      <c r="F160" t="s">
+        <v>249</v>
+      </c>
+      <c r="G160" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7">
+      <c r="A161" s="1">
+        <v>159</v>
+      </c>
+      <c r="B161" t="s">
+        <v>165</v>
+      </c>
+      <c r="C161" t="s">
+        <v>214</v>
+      </c>
+      <c r="F161" t="s">
+        <v>249</v>
+      </c>
+      <c r="G161" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7">
+      <c r="A162" s="1">
+        <v>160</v>
+      </c>
+      <c r="B162" t="s">
+        <v>166</v>
+      </c>
+      <c r="C162" t="s">
+        <v>231</v>
+      </c>
+      <c r="F162" t="s">
+        <v>249</v>
+      </c>
+      <c r="G162" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7">
+      <c r="A163" s="1">
+        <v>161</v>
+      </c>
+      <c r="B163" t="s">
+        <v>167</v>
+      </c>
+      <c r="F163" t="s">
+        <v>249</v>
+      </c>
+      <c r="G163" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7">
+      <c r="A164" s="1">
+        <v>162</v>
+      </c>
+      <c r="B164" t="s">
+        <v>168</v>
+      </c>
+      <c r="C164" t="s">
+        <v>205</v>
+      </c>
+      <c r="D164" t="s">
+        <v>207</v>
+      </c>
+      <c r="F164" t="s">
+        <v>249</v>
+      </c>
+      <c r="G164" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7">
+      <c r="A165" s="1">
+        <v>163</v>
+      </c>
+      <c r="B165" t="s">
+        <v>169</v>
+      </c>
+      <c r="C165" t="s">
+        <v>242</v>
+      </c>
+      <c r="F165" t="s">
+        <v>249</v>
+      </c>
+      <c r="G165" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7">
+      <c r="A166" s="1">
+        <v>164</v>
+      </c>
+      <c r="B166" t="s">
+        <v>170</v>
+      </c>
+      <c r="C166" t="s">
+        <v>214</v>
+      </c>
+      <c r="F166" t="s">
+        <v>249</v>
+      </c>
+      <c r="G166" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7">
+      <c r="A167" s="1">
+        <v>165</v>
+      </c>
+      <c r="B167" t="s">
+        <v>171</v>
+      </c>
+      <c r="C167" t="s">
+        <v>197</v>
+      </c>
+      <c r="F167" t="s">
+        <v>249</v>
+      </c>
+      <c r="G167" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7">
+      <c r="A168" s="1">
+        <v>166</v>
+      </c>
+      <c r="B168" t="s">
+        <v>172</v>
+      </c>
+      <c r="C168" t="s">
+        <v>197</v>
+      </c>
+      <c r="F168" t="s">
+        <v>249</v>
+      </c>
+      <c r="G168" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7">
+      <c r="A169" s="1">
+        <v>167</v>
+      </c>
+      <c r="B169" t="s">
+        <v>173</v>
+      </c>
+      <c r="C169" t="s">
+        <v>222</v>
+      </c>
+      <c r="F169" t="s">
+        <v>249</v>
+      </c>
+      <c r="G169" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7">
+      <c r="A170" s="1">
+        <v>168</v>
+      </c>
+      <c r="B170" t="s">
+        <v>174</v>
+      </c>
+      <c r="C170" t="s">
+        <v>196</v>
+      </c>
+      <c r="F170" t="s">
+        <v>249</v>
+      </c>
+      <c r="G170" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7">
+      <c r="A171" s="1">
+        <v>169</v>
+      </c>
+      <c r="B171" t="s">
+        <v>175</v>
+      </c>
+      <c r="C171" t="s">
+        <v>243</v>
+      </c>
+      <c r="F171" t="s">
+        <v>249</v>
+      </c>
+      <c r="G171" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7">
+      <c r="A172" s="1">
+        <v>170</v>
+      </c>
+      <c r="B172" t="s">
+        <v>176</v>
+      </c>
+      <c r="C172" t="s">
+        <v>209</v>
+      </c>
+      <c r="F172" t="s">
+        <v>249</v>
+      </c>
+      <c r="G172" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7">
+      <c r="A173" s="1">
+        <v>171</v>
+      </c>
+      <c r="B173" t="s">
+        <v>177</v>
+      </c>
+      <c r="C173" t="s">
+        <v>207</v>
+      </c>
+      <c r="F173" t="s">
+        <v>249</v>
+      </c>
+      <c r="G173" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7">
+      <c r="A174" s="1">
+        <v>172</v>
+      </c>
+      <c r="B174" t="s">
+        <v>178</v>
+      </c>
+      <c r="C174" t="s">
+        <v>203</v>
+      </c>
+      <c r="F174" t="s">
+        <v>249</v>
+      </c>
+      <c r="G174" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7">
+      <c r="A175" s="1">
+        <v>173</v>
+      </c>
+      <c r="B175" t="s">
+        <v>179</v>
+      </c>
+      <c r="C175" t="s">
+        <v>210</v>
+      </c>
+      <c r="F175" t="s">
+        <v>249</v>
+      </c>
+      <c r="G175" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7">
+      <c r="A176" s="1">
+        <v>174</v>
+      </c>
+      <c r="B176" t="s">
+        <v>180</v>
+      </c>
+      <c r="C176" t="s">
+        <v>200</v>
+      </c>
+      <c r="F176" t="s">
+        <v>249</v>
+      </c>
+      <c r="G176" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7">
+      <c r="A177" s="1">
+        <v>175</v>
+      </c>
+      <c r="B177" t="s">
+        <v>181</v>
+      </c>
+      <c r="C177" t="s">
+        <v>209</v>
+      </c>
+      <c r="F177" t="s">
+        <v>249</v>
+      </c>
+      <c r="G177" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7">
+      <c r="A178" s="1">
+        <v>176</v>
+      </c>
+      <c r="B178" t="s">
+        <v>182</v>
+      </c>
+      <c r="C178" t="s">
+        <v>211</v>
+      </c>
+      <c r="F178" t="s">
+        <v>249</v>
+      </c>
+      <c r="G178" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7">
+      <c r="A179" s="1">
+        <v>177</v>
+      </c>
+      <c r="B179" t="s">
+        <v>183</v>
+      </c>
+      <c r="C179" t="s">
+        <v>215</v>
+      </c>
+      <c r="F179" t="s">
+        <v>249</v>
+      </c>
+      <c r="G179" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7">
+      <c r="A180" s="1">
+        <v>178</v>
+      </c>
+      <c r="B180" t="s">
+        <v>184</v>
+      </c>
+      <c r="C180" t="s">
+        <v>197</v>
+      </c>
+      <c r="F180" t="s">
+        <v>249</v>
+      </c>
+      <c r="G180" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7">
+      <c r="A181" s="1">
+        <v>179</v>
+      </c>
+      <c r="B181" t="s">
+        <v>185</v>
+      </c>
+      <c r="C181" t="s">
+        <v>235</v>
+      </c>
+      <c r="F181" t="s">
+        <v>249</v>
+      </c>
+      <c r="G181" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7">
+      <c r="A182" s="1">
+        <v>180</v>
+      </c>
+      <c r="B182" t="s">
+        <v>186</v>
+      </c>
+      <c r="C182" t="s">
+        <v>197</v>
+      </c>
+      <c r="F182" t="s">
+        <v>249</v>
+      </c>
+      <c r="G182" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7">
+      <c r="A183" s="1">
+        <v>181</v>
+      </c>
+      <c r="B183" t="s">
+        <v>187</v>
+      </c>
+      <c r="C183" t="s">
+        <v>205</v>
+      </c>
+      <c r="D183" t="s">
+        <v>207</v>
+      </c>
+      <c r="F183" t="s">
+        <v>249</v>
+      </c>
+      <c r="G183" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7">
+      <c r="A184" s="1">
+        <v>182</v>
+      </c>
+      <c r="B184" t="s">
+        <v>188</v>
+      </c>
+      <c r="C184" t="s">
+        <v>244</v>
+      </c>
+      <c r="F184" t="s">
+        <v>249</v>
+      </c>
+      <c r="G184" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7">
+      <c r="A185" s="1">
+        <v>183</v>
+      </c>
+      <c r="B185" t="s">
+        <v>189</v>
+      </c>
+      <c r="C185" t="s">
+        <v>245</v>
+      </c>
+      <c r="F185" t="s">
+        <v>250</v>
+      </c>
+      <c r="G185" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7">
+      <c r="A186" s="1">
+        <v>184</v>
+      </c>
+      <c r="B186" t="s">
+        <v>59</v>
+      </c>
+      <c r="C186" t="s">
+        <v>219</v>
+      </c>
+      <c r="F186" t="s">
+        <v>249</v>
+      </c>
+      <c r="G186" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7">
+      <c r="A187" s="1">
+        <v>185</v>
+      </c>
+      <c r="B187" t="s">
+        <v>134</v>
+      </c>
+      <c r="C187" t="s">
+        <v>213</v>
+      </c>
+      <c r="D187" t="s">
+        <v>208</v>
+      </c>
+      <c r="F187" t="s">
+        <v>249</v>
+      </c>
+      <c r="G187" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7">
+      <c r="A188" s="1">
+        <v>186</v>
+      </c>
+      <c r="B188" t="s">
+        <v>73</v>
+      </c>
+      <c r="C188" t="s">
+        <v>213</v>
+      </c>
+      <c r="F188" t="s">
+        <v>249</v>
+      </c>
+      <c r="G188" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7">
+      <c r="A189" s="1">
+        <v>187</v>
+      </c>
+      <c r="B189" t="s">
+        <v>175</v>
+      </c>
+      <c r="C189" t="s">
+        <v>243</v>
+      </c>
+      <c r="F189" t="s">
+        <v>249</v>
+      </c>
+      <c r="G189" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7">
+      <c r="A190" s="1">
+        <v>188</v>
+      </c>
+      <c r="B190" t="s">
+        <v>176</v>
+      </c>
+      <c r="C190" t="s">
+        <v>209</v>
+      </c>
+      <c r="F190" t="s">
+        <v>249</v>
+      </c>
+      <c r="G190" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7">
+      <c r="A191" s="1">
+        <v>189</v>
+      </c>
+      <c r="B191" t="s">
+        <v>181</v>
+      </c>
+      <c r="C191" t="s">
+        <v>209</v>
+      </c>
+      <c r="F191" t="s">
+        <v>249</v>
+      </c>
+      <c r="G191" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7">
+      <c r="A192" s="1">
+        <v>190</v>
+      </c>
+      <c r="B192" t="s">
+        <v>135</v>
+      </c>
+      <c r="C192" t="s">
+        <v>215</v>
+      </c>
+      <c r="F192" t="s">
+        <v>249</v>
+      </c>
+      <c r="G192" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7">
+      <c r="A193" s="1">
+        <v>191</v>
+      </c>
+      <c r="B193" t="s">
+        <v>162</v>
+      </c>
+      <c r="C193" t="s">
+        <v>201</v>
+      </c>
+      <c r="F193" t="s">
+        <v>249</v>
+      </c>
+      <c r="G193" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7">
+      <c r="A194" s="1">
+        <v>192</v>
+      </c>
+      <c r="B194" t="s">
+        <v>94</v>
+      </c>
+      <c r="C194" t="s">
+        <v>218</v>
+      </c>
+      <c r="F194" t="s">
+        <v>249</v>
+      </c>
+      <c r="G194" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7">
+      <c r="A195" s="1">
+        <v>193</v>
+      </c>
+      <c r="B195" t="s">
         <v>141</v>
       </c>
-      <c r="F143" t="s">
+      <c r="C195" t="s">
+        <v>239</v>
+      </c>
+      <c r="F195" t="s">
+        <v>249</v>
+      </c>
+      <c r="G195" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7">
+      <c r="A196" s="1">
+        <v>194</v>
+      </c>
+      <c r="B196" t="s">
+        <v>174</v>
+      </c>
+      <c r="C196" t="s">
+        <v>196</v>
+      </c>
+      <c r="F196" t="s">
+        <v>249</v>
+      </c>
+      <c r="G196" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7">
+      <c r="A197" s="1">
+        <v>195</v>
+      </c>
+      <c r="B197" t="s">
+        <v>167</v>
+      </c>
+      <c r="F197" t="s">
+        <v>249</v>
+      </c>
+      <c r="G197" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7">
+      <c r="A198" s="1">
+        <v>196</v>
+      </c>
+      <c r="B198" t="s">
+        <v>104</v>
+      </c>
+      <c r="C198" t="s">
+        <v>230</v>
+      </c>
+      <c r="F198" t="s">
+        <v>249</v>
+      </c>
+      <c r="G198" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7">
+      <c r="A199" s="1">
+        <v>197</v>
+      </c>
+      <c r="B199" t="s">
+        <v>71</v>
+      </c>
+      <c r="C199" t="s">
+        <v>223</v>
+      </c>
+      <c r="F199" t="s">
+        <v>249</v>
+      </c>
+      <c r="G199" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7">
+      <c r="A200" s="1">
+        <v>198</v>
+      </c>
+      <c r="B200" t="s">
+        <v>188</v>
+      </c>
+      <c r="C200" t="s">
+        <v>244</v>
+      </c>
+      <c r="F200" t="s">
+        <v>249</v>
+      </c>
+      <c r="G200" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7">
+      <c r="A201" s="1">
+        <v>199</v>
+      </c>
+      <c r="B201" t="s">
         <v>169</v>
       </c>
-      <c r="G143" t="s">
-        <v>170</v>
+      <c r="C201" t="s">
+        <v>242</v>
+      </c>
+      <c r="F201" t="s">
+        <v>249</v>
+      </c>
+      <c r="G201" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7">
+      <c r="A202" s="1">
+        <v>200</v>
+      </c>
+      <c r="B202" t="s">
+        <v>146</v>
+      </c>
+      <c r="C202" t="s">
+        <v>231</v>
+      </c>
+      <c r="F202" t="s">
+        <v>249</v>
+      </c>
+      <c r="G202" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7">
+      <c r="A203" s="1">
+        <v>201</v>
+      </c>
+      <c r="B203" t="s">
+        <v>107</v>
+      </c>
+      <c r="C203" t="s">
+        <v>231</v>
+      </c>
+      <c r="F203" t="s">
+        <v>249</v>
+      </c>
+      <c r="G203" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7">
+      <c r="A204" s="1">
+        <v>202</v>
+      </c>
+      <c r="B204" t="s">
+        <v>144</v>
+      </c>
+      <c r="C204" t="s">
+        <v>213</v>
+      </c>
+      <c r="F204" t="s">
+        <v>249</v>
+      </c>
+      <c r="G204" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7">
+      <c r="A205" s="1">
+        <v>203</v>
+      </c>
+      <c r="B205" t="s">
+        <v>114</v>
+      </c>
+      <c r="C205" t="s">
+        <v>221</v>
+      </c>
+      <c r="F205" t="s">
+        <v>249</v>
+      </c>
+      <c r="G205" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7">
+      <c r="A206" s="1">
+        <v>204</v>
+      </c>
+      <c r="B206" t="s">
+        <v>145</v>
+      </c>
+      <c r="C206" t="s">
+        <v>204</v>
+      </c>
+      <c r="F206" t="s">
+        <v>249</v>
+      </c>
+      <c r="G206" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7">
+      <c r="A207" s="1">
+        <v>205</v>
+      </c>
+      <c r="B207" t="s">
+        <v>129</v>
+      </c>
+      <c r="C207" t="s">
+        <v>231</v>
+      </c>
+      <c r="F207" t="s">
+        <v>249</v>
+      </c>
+      <c r="G207" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7">
+      <c r="A208" s="1">
+        <v>206</v>
+      </c>
+      <c r="B208" t="s">
+        <v>157</v>
+      </c>
+      <c r="C208" t="s">
+        <v>218</v>
+      </c>
+      <c r="F208" t="s">
+        <v>249</v>
+      </c>
+      <c r="G208" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7">
+      <c r="A209" s="1">
+        <v>207</v>
+      </c>
+      <c r="B209" t="s">
+        <v>125</v>
+      </c>
+      <c r="C209" t="s">
+        <v>213</v>
+      </c>
+      <c r="F209" t="s">
+        <v>249</v>
+      </c>
+      <c r="G209" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7">
+      <c r="A210" s="1">
+        <v>208</v>
+      </c>
+      <c r="B210" t="s">
+        <v>143</v>
+      </c>
+      <c r="C210" t="s">
+        <v>235</v>
+      </c>
+      <c r="F210" t="s">
+        <v>249</v>
+      </c>
+      <c r="G210" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7">
+      <c r="A211" s="1">
+        <v>209</v>
+      </c>
+      <c r="B211" t="s">
+        <v>156</v>
+      </c>
+      <c r="C211" t="s">
+        <v>204</v>
+      </c>
+      <c r="F211" t="s">
+        <v>249</v>
+      </c>
+      <c r="G211" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7">
+      <c r="A212" s="1">
+        <v>210</v>
+      </c>
+      <c r="B212" t="s">
+        <v>115</v>
+      </c>
+      <c r="C212" t="s">
+        <v>232</v>
+      </c>
+      <c r="F212" t="s">
+        <v>249</v>
+      </c>
+      <c r="G212" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7">
+      <c r="A213" s="1">
+        <v>211</v>
+      </c>
+      <c r="B213" t="s">
+        <v>150</v>
+      </c>
+      <c r="C213" t="s">
+        <v>240</v>
+      </c>
+      <c r="F213" t="s">
+        <v>249</v>
+      </c>
+      <c r="G213" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7">
+      <c r="A214" s="1">
+        <v>212</v>
+      </c>
+      <c r="B214" t="s">
+        <v>137</v>
+      </c>
+      <c r="C214" t="s">
+        <v>236</v>
+      </c>
+      <c r="F214" t="s">
+        <v>249</v>
+      </c>
+      <c r="G214" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7">
+      <c r="A215" s="1">
+        <v>213</v>
+      </c>
+      <c r="B215" t="s">
+        <v>116</v>
+      </c>
+      <c r="C215" t="s">
+        <v>233</v>
+      </c>
+      <c r="F215" t="s">
+        <v>249</v>
+      </c>
+      <c r="G215" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7">
+      <c r="A216" s="1">
+        <v>214</v>
+      </c>
+      <c r="B216" t="s">
+        <v>120</v>
+      </c>
+      <c r="C216" t="s">
+        <v>234</v>
+      </c>
+      <c r="F216" t="s">
+        <v>249</v>
+      </c>
+      <c r="G216" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7">
+      <c r="A217" s="1">
+        <v>215</v>
+      </c>
+      <c r="B217" t="s">
+        <v>190</v>
+      </c>
+      <c r="C217" t="s">
+        <v>207</v>
+      </c>
+      <c r="F217" t="s">
+        <v>251</v>
+      </c>
+      <c r="G217" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7">
+      <c r="A218" s="1">
+        <v>216</v>
+      </c>
+      <c r="B218" t="s">
+        <v>191</v>
+      </c>
+      <c r="C218" t="s">
+        <v>200</v>
+      </c>
+      <c r="F218" t="s">
+        <v>251</v>
+      </c>
+      <c r="G218" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7">
+      <c r="A219" s="1">
+        <v>217</v>
+      </c>
+      <c r="B219" t="s">
+        <v>192</v>
+      </c>
+      <c r="C219" t="s">
+        <v>194</v>
+      </c>
+      <c r="F219" t="s">
+        <v>251</v>
+      </c>
+      <c r="G219" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7">
+      <c r="A220" s="1">
+        <v>218</v>
+      </c>
+      <c r="B220" t="s">
+        <v>193</v>
+      </c>
+      <c r="C220" t="s">
+        <v>211</v>
+      </c>
+      <c r="F220" t="s">
+        <v>251</v>
+      </c>
+      <c r="G220" t="s">
+        <v>252</v>
       </c>
     </row>
   </sheetData>
